--- a/behavioural_data/behavior_update_iq.xlsx
+++ b/behavioural_data/behavior_update_iq.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/au540169/Desktop/MINDLAB2016_MR-SensCognFromNeural/neuroMET/behavioural_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F2183D-4AD2-F448-9429-D3CF47C8AC88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{096DDF4A-B5E3-354E-ACB8-6239318E76CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
     <workbookView xWindow="8660" yWindow="500" windowWidth="16380" windowHeight="14720" tabRatio="988" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="23">
   <si>
     <t>Scanner ID</t>
   </si>
@@ -83,83 +83,7 @@
     <t>GS</t>
   </si>
   <si>
-    <t xml:space="preserve">Notes </t>
-  </si>
-  <si>
-    <t>frontal artefacts (dental braces)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scores were left blank </t>
-  </si>
-  <si>
-    <t>MET test done before but did not find it</t>
-  </si>
-  <si>
-    <t>take second version of T1</t>
-  </si>
-  <si>
-    <t>no resting state scans</t>
-  </si>
-  <si>
-    <t>Outside noise during testing</t>
-  </si>
-  <si>
-    <t>Had 50-60 gr of alchol before entering the scanner</t>
-  </si>
-  <si>
-    <t>lost pulse recording during resting-state or MPM (he doesn't know when). Exclude if you are using 
-pulse recording as covariate.</t>
-  </si>
-  <si>
-    <t>no reconstruction</t>
-  </si>
-  <si>
-    <t>reconstruction problem surin first 12 minutues rs-fmri. Scan repeated immediately</t>
-  </si>
-  <si>
-    <t>scanner error in the first rs-fMRI. reboot and scout + sequence restarted</t>
-  </si>
-  <si>
-    <t>MPM: take the one obtained in the second session.</t>
-  </si>
-  <si>
-    <t>For the MET test, the answers for both parts were scored on rhythm paper.</t>
-  </si>
-  <si>
-    <t>retrospective reconstruction failed. Possibly body movement issues</t>
-  </si>
-  <si>
-    <t>exclude</t>
-  </si>
-  <si>
-    <t>fallen asleep during rs-FMRI. Exclude from this analysis</t>
-  </si>
-  <si>
-    <t>rs-FMRI restarted. Possibly bad shim in the cancelled one. Use last two.</t>
-  </si>
-  <si>
-    <t>coughing during rs-fMRI (had to be restarted twice). Problems with motion. 4 scans missing from the second run</t>
-  </si>
-  <si>
-    <t>take only second diffusion scan</t>
-  </si>
-  <si>
-    <t>No rhythm</t>
-  </si>
-  <si>
-    <t>reconstruction failed</t>
-  </si>
-  <si>
-    <t>noise around dental brace.Check if it is a problem in the T1.</t>
-  </si>
-  <si>
-    <t>noise from braces. Small frontal, wavy artefacts in MT. Only present in few images (perhaps identify and discard them)</t>
-  </si>
-  <si>
     <t>NaN</t>
-  </si>
-  <si>
-    <t>Pilot</t>
   </si>
   <si>
     <t>-</t>
@@ -308,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -349,9 +273,6 @@
     </xf>
     <xf numFmtId="1" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -744,11 +665,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF272"/>
+  <dimension ref="A1:AE272"/>
   <sheetViews>
     <sheetView windowProtection="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="U1" sqref="U1:U1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -761,11 +682,10 @@
     <col min="8" max="8" width="24"/>
     <col min="9" max="9" width="31.1640625"/>
     <col min="10" max="15" width="14.6640625"/>
-    <col min="21" max="21" width="102.33203125"/>
-    <col min="22" max="1027" width="14.6640625"/>
+    <col min="21" max="1026" width="14.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:31" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -812,23 +732,21 @@
         <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="U1" s="1"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
@@ -839,9 +757,8 @@
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
-      <c r="AF1" s="1"/>
-    </row>
-    <row r="2" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>44</v>
       </c>
@@ -917,9 +834,8 @@
       <c r="AC2" s="4"/>
       <c r="AD2" s="4"/>
       <c r="AE2" s="4"/>
-      <c r="AF2" s="4"/>
-    </row>
-    <row r="3" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>45</v>
       </c>
@@ -995,9 +911,8 @@
       <c r="AC3" s="4"/>
       <c r="AD3" s="4"/>
       <c r="AE3" s="4"/>
-      <c r="AF3" s="4"/>
-    </row>
-    <row r="4" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>46</v>
       </c>
@@ -1073,9 +988,8 @@
       <c r="AC4" s="4"/>
       <c r="AD4" s="4"/>
       <c r="AE4" s="4"/>
-      <c r="AF4" s="4"/>
-    </row>
-    <row r="5" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>47</v>
       </c>
@@ -1151,9 +1065,8 @@
       <c r="AC5" s="4"/>
       <c r="AD5" s="4"/>
       <c r="AE5" s="4"/>
-      <c r="AF5" s="4"/>
-    </row>
-    <row r="6" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>48</v>
       </c>
@@ -1229,9 +1142,8 @@
       <c r="AC6" s="4"/>
       <c r="AD6" s="4"/>
       <c r="AE6" s="4"/>
-      <c r="AF6" s="4"/>
-    </row>
-    <row r="7" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>49</v>
       </c>
@@ -1307,9 +1219,8 @@
       <c r="AC7" s="4"/>
       <c r="AD7" s="4"/>
       <c r="AE7" s="4"/>
-      <c r="AF7" s="4"/>
-    </row>
-    <row r="8" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>50</v>
       </c>
@@ -1385,9 +1296,8 @@
       <c r="AC8" s="4"/>
       <c r="AD8" s="4"/>
       <c r="AE8" s="4"/>
-      <c r="AF8" s="4"/>
-    </row>
-    <row r="9" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>52</v>
       </c>
@@ -1463,9 +1373,8 @@
       <c r="AC9" s="4"/>
       <c r="AD9" s="4"/>
       <c r="AE9" s="4"/>
-      <c r="AF9" s="4"/>
-    </row>
-    <row r="10" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>53</v>
       </c>
@@ -1541,9 +1450,8 @@
       <c r="AC10" s="4"/>
       <c r="AD10" s="4"/>
       <c r="AE10" s="4"/>
-      <c r="AF10" s="4"/>
-    </row>
-    <row r="11" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>54</v>
       </c>
@@ -1608,9 +1516,7 @@
       <c r="T11" s="4">
         <v>104</v>
       </c>
-      <c r="U11" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="U11" s="4"/>
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
       <c r="X11" s="4"/>
@@ -1621,9 +1527,8 @@
       <c r="AC11" s="4"/>
       <c r="AD11" s="4"/>
       <c r="AE11" s="4"/>
-      <c r="AF11" s="4"/>
-    </row>
-    <row r="12" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>55</v>
       </c>
@@ -1699,9 +1604,8 @@
       <c r="AC12" s="4"/>
       <c r="AD12" s="4"/>
       <c r="AE12" s="4"/>
-      <c r="AF12" s="4"/>
-    </row>
-    <row r="13" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>56</v>
       </c>
@@ -1766,9 +1670,7 @@
       <c r="T13" s="10">
         <v>104</v>
       </c>
-      <c r="U13" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="U13" s="4"/>
       <c r="V13" s="4"/>
       <c r="W13" s="4"/>
       <c r="X13" s="4"/>
@@ -1779,9 +1681,8 @@
       <c r="AC13" s="4"/>
       <c r="AD13" s="4"/>
       <c r="AE13" s="4"/>
-      <c r="AF13" s="4"/>
-    </row>
-    <row r="14" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>57</v>
       </c>
@@ -1846,9 +1747,7 @@
       <c r="T14" s="4">
         <v>93</v>
       </c>
-      <c r="U14" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="U14" s="4"/>
       <c r="V14" s="4"/>
       <c r="W14" s="4"/>
       <c r="X14" s="4"/>
@@ -1859,9 +1758,8 @@
       <c r="AC14" s="4"/>
       <c r="AD14" s="4"/>
       <c r="AE14" s="4"/>
-      <c r="AF14" s="4"/>
-    </row>
-    <row r="15" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>58</v>
       </c>
@@ -1937,9 +1835,8 @@
       <c r="AC15" s="4"/>
       <c r="AD15" s="4"/>
       <c r="AE15" s="4"/>
-      <c r="AF15" s="4"/>
-    </row>
-    <row r="16" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>59</v>
       </c>
@@ -2015,9 +1912,8 @@
       <c r="AC16" s="4"/>
       <c r="AD16" s="4"/>
       <c r="AE16" s="4"/>
-      <c r="AF16" s="4"/>
-    </row>
-    <row r="17" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>60</v>
       </c>
@@ -2093,9 +1989,8 @@
       <c r="AC17" s="4"/>
       <c r="AD17" s="4"/>
       <c r="AE17" s="4"/>
-      <c r="AF17" s="4"/>
-    </row>
-    <row r="18" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>61</v>
       </c>
@@ -2171,9 +2066,8 @@
       <c r="AC18" s="4"/>
       <c r="AD18" s="4"/>
       <c r="AE18" s="4"/>
-      <c r="AF18" s="4"/>
-    </row>
-    <row r="19" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>62</v>
       </c>
@@ -2249,9 +2143,8 @@
       <c r="AC19" s="4"/>
       <c r="AD19" s="4"/>
       <c r="AE19" s="4"/>
-      <c r="AF19" s="4"/>
-    </row>
-    <row r="20" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4">
         <v>63</v>
       </c>
@@ -2327,9 +2220,8 @@
       <c r="AC20" s="4"/>
       <c r="AD20" s="4"/>
       <c r="AE20" s="4"/>
-      <c r="AF20" s="4"/>
-    </row>
-    <row r="21" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>64</v>
       </c>
@@ -2405,9 +2297,8 @@
       <c r="AC21" s="4"/>
       <c r="AD21" s="4"/>
       <c r="AE21" s="4"/>
-      <c r="AF21" s="4"/>
-    </row>
-    <row r="22" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>65</v>
       </c>
@@ -2483,9 +2374,8 @@
       <c r="AC22" s="4"/>
       <c r="AD22" s="4"/>
       <c r="AE22" s="4"/>
-      <c r="AF22" s="4"/>
-    </row>
-    <row r="23" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>66</v>
       </c>
@@ -2550,9 +2440,7 @@
       <c r="T23" s="4">
         <v>104</v>
       </c>
-      <c r="U23" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="U23" s="4"/>
       <c r="V23" s="4"/>
       <c r="W23" s="4"/>
       <c r="X23" s="4"/>
@@ -2563,9 +2451,8 @@
       <c r="AC23" s="4"/>
       <c r="AD23" s="4"/>
       <c r="AE23" s="4"/>
-      <c r="AF23" s="4"/>
-    </row>
-    <row r="24" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>67</v>
       </c>
@@ -2641,9 +2528,8 @@
       <c r="AC24" s="4"/>
       <c r="AD24" s="4"/>
       <c r="AE24" s="4"/>
-      <c r="AF24" s="4"/>
-    </row>
-    <row r="25" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="13">
         <v>68</v>
       </c>
@@ -2708,9 +2594,7 @@
       <c r="T25" s="4">
         <v>123</v>
       </c>
-      <c r="U25" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="U25" s="4"/>
       <c r="V25" s="4"/>
       <c r="W25" s="4"/>
       <c r="X25" s="4"/>
@@ -2721,9 +2605,8 @@
       <c r="AC25" s="4"/>
       <c r="AD25" s="4"/>
       <c r="AE25" s="4"/>
-      <c r="AF25" s="4"/>
-    </row>
-    <row r="26" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>70</v>
       </c>
@@ -2799,9 +2682,8 @@
       <c r="AC26" s="4"/>
       <c r="AD26" s="4"/>
       <c r="AE26" s="4"/>
-      <c r="AF26" s="4"/>
-    </row>
-    <row r="27" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>71</v>
       </c>
@@ -2866,9 +2748,7 @@
       <c r="T27" s="4">
         <v>84</v>
       </c>
-      <c r="U27" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="U27" s="4"/>
       <c r="V27" s="4"/>
       <c r="W27" s="4"/>
       <c r="X27" s="4"/>
@@ -2879,9 +2759,8 @@
       <c r="AC27" s="4"/>
       <c r="AD27" s="4"/>
       <c r="AE27" s="4"/>
-      <c r="AF27" s="4"/>
-    </row>
-    <row r="28" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>73</v>
       </c>
@@ -2957,9 +2836,8 @@
       <c r="AC28" s="4"/>
       <c r="AD28" s="4"/>
       <c r="AE28" s="4"/>
-      <c r="AF28" s="4"/>
-    </row>
-    <row r="29" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>74</v>
       </c>
@@ -3035,9 +2913,8 @@
       <c r="AC29" s="4"/>
       <c r="AD29" s="4"/>
       <c r="AE29" s="4"/>
-      <c r="AF29" s="4"/>
-    </row>
-    <row r="30" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>75</v>
       </c>
@@ -3112,9 +2989,8 @@
       <c r="AC30" s="4"/>
       <c r="AD30" s="4"/>
       <c r="AE30" s="4"/>
-      <c r="AF30" s="4"/>
-    </row>
-    <row r="31" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>76</v>
       </c>
@@ -3190,9 +3066,8 @@
       <c r="AC31" s="4"/>
       <c r="AD31" s="4"/>
       <c r="AE31" s="4"/>
-      <c r="AF31" s="4"/>
-    </row>
-    <row r="32" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>77</v>
       </c>
@@ -3268,9 +3143,8 @@
       <c r="AC32" s="4"/>
       <c r="AD32" s="4"/>
       <c r="AE32" s="4"/>
-      <c r="AF32" s="4"/>
-    </row>
-    <row r="33" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>78</v>
       </c>
@@ -3346,9 +3220,8 @@
       <c r="AC33" s="4"/>
       <c r="AD33" s="4"/>
       <c r="AE33" s="4"/>
-      <c r="AF33" s="4"/>
-    </row>
-    <row r="34" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>79</v>
       </c>
@@ -3424,9 +3297,8 @@
       <c r="AC34" s="4"/>
       <c r="AD34" s="4"/>
       <c r="AE34" s="4"/>
-      <c r="AF34" s="4"/>
-    </row>
-    <row r="35" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>80</v>
       </c>
@@ -3502,9 +3374,8 @@
       <c r="AC35" s="4"/>
       <c r="AD35" s="4"/>
       <c r="AE35" s="4"/>
-      <c r="AF35" s="4"/>
-    </row>
-    <row r="36" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>81</v>
       </c>
@@ -3580,9 +3451,8 @@
       <c r="AC36" s="4"/>
       <c r="AD36" s="4"/>
       <c r="AE36" s="4"/>
-      <c r="AF36" s="4"/>
-    </row>
-    <row r="37" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>82</v>
       </c>
@@ -3633,23 +3503,21 @@
         <v>81</v>
       </c>
       <c r="P37" s="4" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="Q37" s="4" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="R37" s="4" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="S37" s="4" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="T37" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="U37" s="4" t="s">
-        <v>18</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="U37" s="4"/>
       <c r="V37" s="4"/>
       <c r="W37" s="4"/>
       <c r="X37" s="4"/>
@@ -3660,9 +3528,8 @@
       <c r="AC37" s="4"/>
       <c r="AD37" s="4"/>
       <c r="AE37" s="4"/>
-      <c r="AF37" s="4"/>
-    </row>
-    <row r="38" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>83</v>
       </c>
@@ -3712,23 +3579,21 @@
         <v>82</v>
       </c>
       <c r="P38" s="4" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="Q38" s="4" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="R38" s="4" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="S38" s="4" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="T38" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="U38" s="4" t="s">
-        <v>18</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="U38" s="4"/>
       <c r="V38" s="4"/>
       <c r="W38" s="4"/>
       <c r="X38" s="4"/>
@@ -3739,9 +3604,8 @@
       <c r="AC38" s="4"/>
       <c r="AD38" s="4"/>
       <c r="AE38" s="4"/>
-      <c r="AF38" s="4"/>
-    </row>
-    <row r="39" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>84</v>
       </c>
@@ -3806,9 +3670,7 @@
       <c r="T39" s="11">
         <v>114</v>
       </c>
-      <c r="U39" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="U39" s="4"/>
       <c r="V39" s="4"/>
       <c r="W39" s="4"/>
       <c r="X39" s="4"/>
@@ -3819,9 +3681,8 @@
       <c r="AC39" s="4"/>
       <c r="AD39" s="4"/>
       <c r="AE39" s="4"/>
-      <c r="AF39" s="4"/>
-    </row>
-    <row r="40" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>85</v>
       </c>
@@ -3897,9 +3758,8 @@
       <c r="AC40" s="4"/>
       <c r="AD40" s="4"/>
       <c r="AE40" s="4"/>
-      <c r="AF40" s="4"/>
-    </row>
-    <row r="41" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>86</v>
       </c>
@@ -3975,9 +3835,8 @@
       <c r="AC41" s="4"/>
       <c r="AD41" s="4"/>
       <c r="AE41" s="4"/>
-      <c r="AF41" s="4"/>
-    </row>
-    <row r="42" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>87</v>
       </c>
@@ -4053,9 +3912,8 @@
       <c r="AC42" s="4"/>
       <c r="AD42" s="4"/>
       <c r="AE42" s="4"/>
-      <c r="AF42" s="4"/>
-    </row>
-    <row r="43" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>88</v>
       </c>
@@ -4131,9 +3989,8 @@
       <c r="AC43" s="4"/>
       <c r="AD43" s="4"/>
       <c r="AE43" s="4"/>
-      <c r="AF43" s="4"/>
-    </row>
-    <row r="44" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>89</v>
       </c>
@@ -4209,9 +4066,8 @@
       <c r="AC44" s="4"/>
       <c r="AD44" s="4"/>
       <c r="AE44" s="4"/>
-      <c r="AF44" s="4"/>
-    </row>
-    <row r="45" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>90</v>
       </c>
@@ -4287,9 +4143,8 @@
       <c r="AC45" s="4"/>
       <c r="AD45" s="4"/>
       <c r="AE45" s="4"/>
-      <c r="AF45" s="4"/>
-    </row>
-    <row r="46" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>91</v>
       </c>
@@ -4365,9 +4220,8 @@
       <c r="AC46" s="4"/>
       <c r="AD46" s="4"/>
       <c r="AE46" s="4"/>
-      <c r="AF46" s="4"/>
-    </row>
-    <row r="47" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>92</v>
       </c>
@@ -4443,9 +4297,8 @@
       <c r="AC47" s="4"/>
       <c r="AD47" s="4"/>
       <c r="AE47" s="4"/>
-      <c r="AF47" s="4"/>
-    </row>
-    <row r="48" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>93</v>
       </c>
@@ -4521,9 +4374,8 @@
       <c r="AC48" s="4"/>
       <c r="AD48" s="4"/>
       <c r="AE48" s="4"/>
-      <c r="AF48" s="4"/>
-    </row>
-    <row r="49" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="49" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="4">
         <v>94</v>
       </c>
@@ -4599,9 +4451,8 @@
       <c r="AC49" s="4"/>
       <c r="AD49" s="4"/>
       <c r="AE49" s="4"/>
-      <c r="AF49" s="4"/>
-    </row>
-    <row r="50" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>95</v>
       </c>
@@ -4677,9 +4528,8 @@
       <c r="AC50" s="4"/>
       <c r="AD50" s="4"/>
       <c r="AE50" s="4"/>
-      <c r="AF50" s="4"/>
-    </row>
-    <row r="51" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>96</v>
       </c>
@@ -4755,9 +4605,8 @@
       <c r="AC51" s="4"/>
       <c r="AD51" s="4"/>
       <c r="AE51" s="4"/>
-      <c r="AF51" s="4"/>
-    </row>
-    <row r="52" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>97</v>
       </c>
@@ -4833,9 +4682,8 @@
       <c r="AC52" s="4"/>
       <c r="AD52" s="4"/>
       <c r="AE52" s="4"/>
-      <c r="AF52" s="4"/>
-    </row>
-    <row r="53" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>100</v>
       </c>
@@ -4911,9 +4759,8 @@
       <c r="AC53" s="4"/>
       <c r="AD53" s="4"/>
       <c r="AE53" s="4"/>
-      <c r="AF53" s="4"/>
-    </row>
-    <row r="54" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>102</v>
       </c>
@@ -4989,9 +4836,8 @@
       <c r="AC54" s="4"/>
       <c r="AD54" s="4"/>
       <c r="AE54" s="4"/>
-      <c r="AF54" s="4"/>
-    </row>
-    <row r="55" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>104</v>
       </c>
@@ -5067,9 +4913,8 @@
       <c r="AC55" s="4"/>
       <c r="AD55" s="4"/>
       <c r="AE55" s="4"/>
-      <c r="AF55" s="4"/>
-    </row>
-    <row r="56" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>105</v>
       </c>
@@ -5145,9 +4990,8 @@
       <c r="AC56" s="4"/>
       <c r="AD56" s="4"/>
       <c r="AE56" s="4"/>
-      <c r="AF56" s="4"/>
-    </row>
-    <row r="57" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>106</v>
       </c>
@@ -5223,9 +5067,8 @@
       <c r="AC57" s="4"/>
       <c r="AD57" s="4"/>
       <c r="AE57" s="4"/>
-      <c r="AF57" s="4"/>
-    </row>
-    <row r="58" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>107</v>
       </c>
@@ -5290,9 +5133,7 @@
       <c r="T58" s="4">
         <v>128</v>
       </c>
-      <c r="U58" s="15" t="s">
-        <v>23</v>
-      </c>
+      <c r="U58" s="4"/>
       <c r="V58" s="4"/>
       <c r="W58" s="4"/>
       <c r="X58" s="4"/>
@@ -5303,9 +5144,8 @@
       <c r="AC58" s="4"/>
       <c r="AD58" s="4"/>
       <c r="AE58" s="4"/>
-      <c r="AF58" s="4"/>
-    </row>
-    <row r="59" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>108</v>
       </c>
@@ -5381,9 +5221,8 @@
       <c r="AC59" s="4"/>
       <c r="AD59" s="4"/>
       <c r="AE59" s="4"/>
-      <c r="AF59" s="4"/>
-    </row>
-    <row r="60" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>109</v>
       </c>
@@ -5459,9 +5298,8 @@
       <c r="AC60" s="4"/>
       <c r="AD60" s="4"/>
       <c r="AE60" s="4"/>
-      <c r="AF60" s="4"/>
-    </row>
-    <row r="61" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>110</v>
       </c>
@@ -5537,9 +5375,8 @@
       <c r="AC61" s="4"/>
       <c r="AD61" s="4"/>
       <c r="AE61" s="4"/>
-      <c r="AF61" s="4"/>
-    </row>
-    <row r="62" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>111</v>
       </c>
@@ -5615,9 +5452,8 @@
       <c r="AC62" s="4"/>
       <c r="AD62" s="4"/>
       <c r="AE62" s="4"/>
-      <c r="AF62" s="4"/>
-    </row>
-    <row r="63" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>112</v>
       </c>
@@ -5693,9 +5529,8 @@
       <c r="AC63" s="4"/>
       <c r="AD63" s="4"/>
       <c r="AE63" s="4"/>
-      <c r="AF63" s="4"/>
-    </row>
-    <row r="64" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>113</v>
       </c>
@@ -5771,9 +5606,8 @@
       <c r="AC64" s="4"/>
       <c r="AD64" s="4"/>
       <c r="AE64" s="4"/>
-      <c r="AF64" s="4"/>
-    </row>
-    <row r="65" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>115</v>
       </c>
@@ -5849,9 +5683,8 @@
       <c r="AC65" s="4"/>
       <c r="AD65" s="4"/>
       <c r="AE65" s="4"/>
-      <c r="AF65" s="4"/>
-    </row>
-    <row r="66" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>116</v>
       </c>
@@ -5927,9 +5760,8 @@
       <c r="AC66" s="4"/>
       <c r="AD66" s="4"/>
       <c r="AE66" s="4"/>
-      <c r="AF66" s="4"/>
-    </row>
-    <row r="67" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>117</v>
       </c>
@@ -6005,9 +5837,8 @@
       <c r="AC67" s="4"/>
       <c r="AD67" s="4"/>
       <c r="AE67" s="4"/>
-      <c r="AF67" s="4"/>
-    </row>
-    <row r="68" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>119</v>
       </c>
@@ -6083,9 +5914,8 @@
       <c r="AC68" s="4"/>
       <c r="AD68" s="4"/>
       <c r="AE68" s="4"/>
-      <c r="AF68" s="4"/>
-    </row>
-    <row r="69" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>120</v>
       </c>
@@ -6150,9 +5980,7 @@
       <c r="T69" s="4">
         <v>142</v>
       </c>
-      <c r="U69" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="U69" s="4"/>
       <c r="V69" s="4"/>
       <c r="W69" s="4"/>
       <c r="X69" s="4"/>
@@ -6163,9 +5991,8 @@
       <c r="AC69" s="4"/>
       <c r="AD69" s="4"/>
       <c r="AE69" s="4"/>
-      <c r="AF69" s="4"/>
-    </row>
-    <row r="70" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>121</v>
       </c>
@@ -6241,9 +6068,8 @@
       <c r="AC70" s="4"/>
       <c r="AD70" s="4"/>
       <c r="AE70" s="4"/>
-      <c r="AF70" s="4"/>
-    </row>
-    <row r="71" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>122</v>
       </c>
@@ -6319,9 +6145,8 @@
       <c r="AC71" s="4"/>
       <c r="AD71" s="4"/>
       <c r="AE71" s="4"/>
-      <c r="AF71" s="4"/>
-    </row>
-    <row r="72" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>124</v>
       </c>
@@ -6397,9 +6222,8 @@
       <c r="AC72" s="4"/>
       <c r="AD72" s="4"/>
       <c r="AE72" s="4"/>
-      <c r="AF72" s="4"/>
-    </row>
-    <row r="73" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>125</v>
       </c>
@@ -6475,9 +6299,8 @@
       <c r="AC73" s="4"/>
       <c r="AD73" s="4"/>
       <c r="AE73" s="4"/>
-      <c r="AF73" s="4"/>
-    </row>
-    <row r="74" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>127</v>
       </c>
@@ -6553,9 +6376,8 @@
       <c r="AC74" s="4"/>
       <c r="AD74" s="4"/>
       <c r="AE74" s="4"/>
-      <c r="AF74" s="4"/>
-    </row>
-    <row r="75" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>128</v>
       </c>
@@ -6631,9 +6453,8 @@
       <c r="AC75" s="4"/>
       <c r="AD75" s="4"/>
       <c r="AE75" s="4"/>
-      <c r="AF75" s="4"/>
-    </row>
-    <row r="76" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>129</v>
       </c>
@@ -6709,9 +6530,8 @@
       <c r="AC76" s="4"/>
       <c r="AD76" s="4"/>
       <c r="AE76" s="4"/>
-      <c r="AF76" s="4"/>
-    </row>
-    <row r="77" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>130</v>
       </c>
@@ -6787,9 +6607,8 @@
       <c r="AC77" s="4"/>
       <c r="AD77" s="4"/>
       <c r="AE77" s="4"/>
-      <c r="AF77" s="4"/>
-    </row>
-    <row r="78" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>131</v>
       </c>
@@ -6865,9 +6684,8 @@
       <c r="AC78" s="4"/>
       <c r="AD78" s="4"/>
       <c r="AE78" s="4"/>
-      <c r="AF78" s="4"/>
-    </row>
-    <row r="79" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>132</v>
       </c>
@@ -6943,9 +6761,8 @@
       <c r="AC79" s="4"/>
       <c r="AD79" s="4"/>
       <c r="AE79" s="4"/>
-      <c r="AF79" s="4"/>
-    </row>
-    <row r="80" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>133</v>
       </c>
@@ -7021,9 +6838,8 @@
       <c r="AC80" s="4"/>
       <c r="AD80" s="4"/>
       <c r="AE80" s="4"/>
-      <c r="AF80" s="4"/>
-    </row>
-    <row r="81" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>134</v>
       </c>
@@ -7099,9 +6915,8 @@
       <c r="AC81" s="4"/>
       <c r="AD81" s="4"/>
       <c r="AE81" s="4"/>
-      <c r="AF81" s="4"/>
-    </row>
-    <row r="82" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>135</v>
       </c>
@@ -7177,9 +6992,8 @@
       <c r="AC82" s="4"/>
       <c r="AD82" s="4"/>
       <c r="AE82" s="4"/>
-      <c r="AF82" s="4"/>
-    </row>
-    <row r="83" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>136</v>
       </c>
@@ -7255,9 +7069,8 @@
       <c r="AC83" s="4"/>
       <c r="AD83" s="4"/>
       <c r="AE83" s="4"/>
-      <c r="AF83" s="4"/>
-    </row>
-    <row r="84" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>137</v>
       </c>
@@ -7333,10 +7146,9 @@
       <c r="AC84" s="4"/>
       <c r="AD84" s="4"/>
       <c r="AE84" s="4"/>
-      <c r="AF84" s="4"/>
-    </row>
-    <row r="85" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="16">
+    </row>
+    <row r="85" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="15">
         <v>138</v>
       </c>
       <c r="B85" s="6">
@@ -7386,23 +7198,21 @@
         <v>50</v>
       </c>
       <c r="P85" s="11" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="Q85" s="11" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="R85" s="11" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="S85" s="11" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="T85" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="U85" s="4" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="U85" s="4"/>
       <c r="V85" s="4"/>
       <c r="W85" s="4"/>
       <c r="X85" s="4"/>
@@ -7413,9 +7223,8 @@
       <c r="AC85" s="4"/>
       <c r="AD85" s="4"/>
       <c r="AE85" s="4"/>
-      <c r="AF85" s="4"/>
-    </row>
-    <row r="86" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>139</v>
       </c>
@@ -7491,9 +7300,8 @@
       <c r="AC86" s="4"/>
       <c r="AD86" s="4"/>
       <c r="AE86" s="4"/>
-      <c r="AF86" s="4"/>
-    </row>
-    <row r="87" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>140</v>
       </c>
@@ -7569,9 +7377,8 @@
       <c r="AC87" s="4"/>
       <c r="AD87" s="4"/>
       <c r="AE87" s="4"/>
-      <c r="AF87" s="4"/>
-    </row>
-    <row r="88" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>141</v>
       </c>
@@ -7647,9 +7454,8 @@
       <c r="AC88" s="4"/>
       <c r="AD88" s="4"/>
       <c r="AE88" s="4"/>
-      <c r="AF88" s="4"/>
-    </row>
-    <row r="89" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>143</v>
       </c>
@@ -7725,9 +7531,8 @@
       <c r="AC89" s="4"/>
       <c r="AD89" s="4"/>
       <c r="AE89" s="4"/>
-      <c r="AF89" s="4"/>
-    </row>
-    <row r="90" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>144</v>
       </c>
@@ -7803,9 +7608,8 @@
       <c r="AC90" s="4"/>
       <c r="AD90" s="4"/>
       <c r="AE90" s="4"/>
-      <c r="AF90" s="4"/>
-    </row>
-    <row r="91" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>145</v>
       </c>
@@ -7881,9 +7685,8 @@
       <c r="AC91" s="4"/>
       <c r="AD91" s="4"/>
       <c r="AE91" s="4"/>
-      <c r="AF91" s="4"/>
-    </row>
-    <row r="92" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="5">
         <v>146</v>
       </c>
@@ -7948,9 +7751,7 @@
       <c r="T92" s="11">
         <v>117</v>
       </c>
-      <c r="U92" s="4" t="s">
-        <v>26</v>
-      </c>
+      <c r="U92" s="4"/>
       <c r="V92" s="4"/>
       <c r="W92" s="4"/>
       <c r="X92" s="4"/>
@@ -7961,9 +7762,8 @@
       <c r="AC92" s="4"/>
       <c r="AD92" s="4"/>
       <c r="AE92" s="4"/>
-      <c r="AF92" s="4"/>
-    </row>
-    <row r="93" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>147</v>
       </c>
@@ -7983,7 +7783,7 @@
       <c r="F93" s="4">
         <v>35</v>
       </c>
-      <c r="G93" s="17">
+      <c r="G93" s="16">
         <f t="shared" si="7"/>
         <v>67.307692307692307</v>
       </c>
@@ -8039,9 +7839,8 @@
       <c r="AC93" s="4"/>
       <c r="AD93" s="4"/>
       <c r="AE93" s="4"/>
-      <c r="AF93" s="4"/>
-    </row>
-    <row r="94" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>148</v>
       </c>
@@ -8117,9 +7916,8 @@
       <c r="AC94" s="4"/>
       <c r="AD94" s="4"/>
       <c r="AE94" s="4"/>
-      <c r="AF94" s="4"/>
-    </row>
-    <row r="95" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>149</v>
       </c>
@@ -8195,9 +7993,8 @@
       <c r="AC95" s="4"/>
       <c r="AD95" s="4"/>
       <c r="AE95" s="4"/>
-      <c r="AF95" s="4"/>
-    </row>
-    <row r="96" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <v>150</v>
       </c>
@@ -8273,9 +8070,8 @@
       <c r="AC96" s="4"/>
       <c r="AD96" s="4"/>
       <c r="AE96" s="4"/>
-      <c r="AF96" s="4"/>
-    </row>
-    <row r="97" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <v>151</v>
       </c>
@@ -8351,9 +8147,8 @@
       <c r="AC97" s="4"/>
       <c r="AD97" s="4"/>
       <c r="AE97" s="4"/>
-      <c r="AF97" s="4"/>
-    </row>
-    <row r="98" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
         <v>153</v>
       </c>
@@ -8429,9 +8224,8 @@
       <c r="AC98" s="4"/>
       <c r="AD98" s="4"/>
       <c r="AE98" s="4"/>
-      <c r="AF98" s="4"/>
-    </row>
-    <row r="99" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
         <v>155</v>
       </c>
@@ -8507,9 +8301,8 @@
       <c r="AC99" s="4"/>
       <c r="AD99" s="4"/>
       <c r="AE99" s="4"/>
-      <c r="AF99" s="4"/>
-    </row>
-    <row r="100" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
         <v>156</v>
       </c>
@@ -8585,9 +8378,8 @@
       <c r="AC100" s="4"/>
       <c r="AD100" s="4"/>
       <c r="AE100" s="4"/>
-      <c r="AF100" s="4"/>
-    </row>
-    <row r="101" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
         <v>157</v>
       </c>
@@ -8663,9 +8455,8 @@
       <c r="AC101" s="4"/>
       <c r="AD101" s="4"/>
       <c r="AE101" s="4"/>
-      <c r="AF101" s="4"/>
-    </row>
-    <row r="102" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="4">
         <v>158</v>
       </c>
@@ -8741,9 +8532,8 @@
       <c r="AC102" s="4"/>
       <c r="AD102" s="4"/>
       <c r="AE102" s="4"/>
-      <c r="AF102" s="4"/>
-    </row>
-    <row r="103" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="103" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="4">
         <v>160</v>
       </c>
@@ -8819,9 +8609,8 @@
       <c r="AC103" s="4"/>
       <c r="AD103" s="4"/>
       <c r="AE103" s="4"/>
-      <c r="AF103" s="4"/>
-    </row>
-    <row r="104" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="104" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="4">
         <v>161</v>
       </c>
@@ -8897,9 +8686,8 @@
       <c r="AC104" s="4"/>
       <c r="AD104" s="4"/>
       <c r="AE104" s="4"/>
-      <c r="AF104" s="4"/>
-    </row>
-    <row r="105" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="105" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="4">
         <v>162</v>
       </c>
@@ -8975,9 +8763,8 @@
       <c r="AC105" s="4"/>
       <c r="AD105" s="4"/>
       <c r="AE105" s="4"/>
-      <c r="AF105" s="4"/>
-    </row>
-    <row r="106" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="4">
         <v>163</v>
       </c>
@@ -9053,9 +8840,8 @@
       <c r="AC106" s="4"/>
       <c r="AD106" s="4"/>
       <c r="AE106" s="4"/>
-      <c r="AF106" s="4"/>
-    </row>
-    <row r="107" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="107" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="4">
         <v>164</v>
       </c>
@@ -9131,9 +8917,8 @@
       <c r="AC107" s="4"/>
       <c r="AD107" s="4"/>
       <c r="AE107" s="4"/>
-      <c r="AF107" s="4"/>
-    </row>
-    <row r="108" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="108" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="4">
         <v>165</v>
       </c>
@@ -9209,9 +8994,8 @@
       <c r="AC108" s="4"/>
       <c r="AD108" s="4"/>
       <c r="AE108" s="4"/>
-      <c r="AF108" s="4"/>
-    </row>
-    <row r="109" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="109" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="4">
         <v>167</v>
       </c>
@@ -9287,9 +9071,8 @@
       <c r="AC109" s="4"/>
       <c r="AD109" s="4"/>
       <c r="AE109" s="4"/>
-      <c r="AF109" s="4"/>
-    </row>
-    <row r="110" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="110" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="4">
         <v>169</v>
       </c>
@@ -9365,9 +9148,8 @@
       <c r="AC110" s="4"/>
       <c r="AD110" s="4"/>
       <c r="AE110" s="4"/>
-      <c r="AF110" s="4"/>
-    </row>
-    <row r="111" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="111" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="4">
         <v>171</v>
       </c>
@@ -9443,9 +9225,8 @@
       <c r="AC111" s="4"/>
       <c r="AD111" s="4"/>
       <c r="AE111" s="4"/>
-      <c r="AF111" s="4"/>
-    </row>
-    <row r="112" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="4">
         <v>172</v>
       </c>
@@ -9521,9 +9302,8 @@
       <c r="AC112" s="4"/>
       <c r="AD112" s="4"/>
       <c r="AE112" s="4"/>
-      <c r="AF112" s="4"/>
-    </row>
-    <row r="113" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="113" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="4">
         <v>173</v>
       </c>
@@ -9599,9 +9379,8 @@
       <c r="AC113" s="4"/>
       <c r="AD113" s="4"/>
       <c r="AE113" s="4"/>
-      <c r="AF113" s="4"/>
-    </row>
-    <row r="114" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="114" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="4">
         <v>174</v>
       </c>
@@ -9677,9 +9456,8 @@
       <c r="AC114" s="4"/>
       <c r="AD114" s="4"/>
       <c r="AE114" s="4"/>
-      <c r="AF114" s="4"/>
-    </row>
-    <row r="115" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="115" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="4">
         <v>175</v>
       </c>
@@ -9755,9 +9533,8 @@
       <c r="AC115" s="4"/>
       <c r="AD115" s="4"/>
       <c r="AE115" s="4"/>
-      <c r="AF115" s="4"/>
-    </row>
-    <row r="116" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="116" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="4">
         <v>182</v>
       </c>
@@ -9833,9 +9610,8 @@
       <c r="AC116" s="4"/>
       <c r="AD116" s="4"/>
       <c r="AE116" s="4"/>
-      <c r="AF116" s="4"/>
-    </row>
-    <row r="117" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="117" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="4">
         <v>183</v>
       </c>
@@ -9900,9 +9676,7 @@
       <c r="T117" s="4">
         <v>106</v>
       </c>
-      <c r="U117" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="U117" s="4"/>
       <c r="V117" s="4"/>
       <c r="W117" s="4"/>
       <c r="X117" s="4"/>
@@ -9913,9 +9687,8 @@
       <c r="AC117" s="4"/>
       <c r="AD117" s="4"/>
       <c r="AE117" s="4"/>
-      <c r="AF117" s="4"/>
-    </row>
-    <row r="118" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="118" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="4">
         <v>184</v>
       </c>
@@ -9991,9 +9764,8 @@
       <c r="AC118" s="4"/>
       <c r="AD118" s="4"/>
       <c r="AE118" s="4"/>
-      <c r="AF118" s="4"/>
-    </row>
-    <row r="119" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="119" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="4">
         <v>188</v>
       </c>
@@ -10069,9 +9841,8 @@
       <c r="AC119" s="4"/>
       <c r="AD119" s="4"/>
       <c r="AE119" s="4"/>
-      <c r="AF119" s="4"/>
-    </row>
-    <row r="120" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="120" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="4">
         <v>189</v>
       </c>
@@ -10147,9 +9918,8 @@
       <c r="AC120" s="4"/>
       <c r="AD120" s="4"/>
       <c r="AE120" s="4"/>
-      <c r="AF120" s="4"/>
-    </row>
-    <row r="121" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="121" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="4">
         <v>190</v>
       </c>
@@ -10225,9 +9995,8 @@
       <c r="AC121" s="4"/>
       <c r="AD121" s="4"/>
       <c r="AE121" s="4"/>
-      <c r="AF121" s="4"/>
-    </row>
-    <row r="122" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="122" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="4">
         <v>191</v>
       </c>
@@ -10303,9 +10072,8 @@
       <c r="AC122" s="4"/>
       <c r="AD122" s="4"/>
       <c r="AE122" s="4"/>
-      <c r="AF122" s="4"/>
-    </row>
-    <row r="123" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="123" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="4">
         <v>192</v>
       </c>
@@ -10381,9 +10149,8 @@
       <c r="AC123" s="4"/>
       <c r="AD123" s="4"/>
       <c r="AE123" s="4"/>
-      <c r="AF123" s="4"/>
-    </row>
-    <row r="124" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="124" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="4">
         <v>193</v>
       </c>
@@ -10459,9 +10226,8 @@
       <c r="AC124" s="4"/>
       <c r="AD124" s="4"/>
       <c r="AE124" s="4"/>
-      <c r="AF124" s="4"/>
-    </row>
-    <row r="125" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="125" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="4">
         <v>194</v>
       </c>
@@ -10537,9 +10303,8 @@
       <c r="AC125" s="4"/>
       <c r="AD125" s="4"/>
       <c r="AE125" s="4"/>
-      <c r="AF125" s="4"/>
-    </row>
-    <row r="126" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="126" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="4">
         <v>196</v>
       </c>
@@ -10604,9 +10369,7 @@
       <c r="T126" s="4">
         <v>101</v>
       </c>
-      <c r="U126" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="U126" s="4"/>
       <c r="V126" s="4"/>
       <c r="W126" s="4"/>
       <c r="X126" s="4"/>
@@ -10617,9 +10380,8 @@
       <c r="AC126" s="4"/>
       <c r="AD126" s="4"/>
       <c r="AE126" s="4"/>
-      <c r="AF126" s="4"/>
-    </row>
-    <row r="127" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="127" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="4">
         <v>197</v>
       </c>
@@ -10695,9 +10457,8 @@
       <c r="AC127" s="4"/>
       <c r="AD127" s="4"/>
       <c r="AE127" s="4"/>
-      <c r="AF127" s="4"/>
-    </row>
-    <row r="128" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="128" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="4">
         <v>199</v>
       </c>
@@ -10773,9 +10534,8 @@
       <c r="AC128" s="4"/>
       <c r="AD128" s="4"/>
       <c r="AE128" s="4"/>
-      <c r="AF128" s="4"/>
-    </row>
-    <row r="129" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="129" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="4">
         <v>200</v>
       </c>
@@ -10851,9 +10611,8 @@
       <c r="AC129" s="4"/>
       <c r="AD129" s="4"/>
       <c r="AE129" s="4"/>
-      <c r="AF129" s="4"/>
-    </row>
-    <row r="130" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="130" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="4">
         <v>201</v>
       </c>
@@ -10929,9 +10688,8 @@
       <c r="AC130" s="4"/>
       <c r="AD130" s="4"/>
       <c r="AE130" s="4"/>
-      <c r="AF130" s="4"/>
-    </row>
-    <row r="131" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="131" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="4">
         <v>202</v>
       </c>
@@ -11007,9 +10765,8 @@
       <c r="AC131" s="4"/>
       <c r="AD131" s="4"/>
       <c r="AE131" s="4"/>
-      <c r="AF131" s="4"/>
-    </row>
-    <row r="132" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="132" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="4">
         <v>203</v>
       </c>
@@ -11060,19 +10817,19 @@
         <v>49</v>
       </c>
       <c r="P132" s="4" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="Q132" s="4" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="R132" s="4" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="S132" s="4" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="T132" s="4" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="U132" s="4"/>
       <c r="V132" s="4"/>
@@ -11085,9 +10842,8 @@
       <c r="AC132" s="4"/>
       <c r="AD132" s="4"/>
       <c r="AE132" s="4"/>
-      <c r="AF132" s="4"/>
-    </row>
-    <row r="133" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="133" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="4">
         <v>206</v>
       </c>
@@ -11163,9 +10919,8 @@
       <c r="AC133" s="4"/>
       <c r="AD133" s="4"/>
       <c r="AE133" s="4"/>
-      <c r="AF133" s="4"/>
-    </row>
-    <row r="134" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="134" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="4">
         <v>207</v>
       </c>
@@ -11241,9 +10996,8 @@
       <c r="AC134" s="4"/>
       <c r="AD134" s="4"/>
       <c r="AE134" s="4"/>
-      <c r="AF134" s="4"/>
-    </row>
-    <row r="135" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="135" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="4">
         <v>208</v>
       </c>
@@ -11319,9 +11073,8 @@
       <c r="AC135" s="4"/>
       <c r="AD135" s="4"/>
       <c r="AE135" s="4"/>
-      <c r="AF135" s="4"/>
-    </row>
-    <row r="136" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="136" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="4">
         <v>209</v>
       </c>
@@ -11397,9 +11150,8 @@
       <c r="AC136" s="4"/>
       <c r="AD136" s="4"/>
       <c r="AE136" s="4"/>
-      <c r="AF136" s="4"/>
-    </row>
-    <row r="137" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="137" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="4">
         <v>210</v>
       </c>
@@ -11475,9 +11227,8 @@
       <c r="AC137" s="4"/>
       <c r="AD137" s="4"/>
       <c r="AE137" s="4"/>
-      <c r="AF137" s="4"/>
-    </row>
-    <row r="138" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="138" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="4">
         <v>211</v>
       </c>
@@ -11553,9 +11304,8 @@
       <c r="AC138" s="4"/>
       <c r="AD138" s="4"/>
       <c r="AE138" s="4"/>
-      <c r="AF138" s="4"/>
-    </row>
-    <row r="139" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="139" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="4">
         <v>212</v>
       </c>
@@ -11631,9 +11381,8 @@
       <c r="AC139" s="4"/>
       <c r="AD139" s="4"/>
       <c r="AE139" s="4"/>
-      <c r="AF139" s="4"/>
-    </row>
-    <row r="140" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="140" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="4">
         <v>213</v>
       </c>
@@ -11709,9 +11458,8 @@
       <c r="AC140" s="4"/>
       <c r="AD140" s="4"/>
       <c r="AE140" s="4"/>
-      <c r="AF140" s="4"/>
-    </row>
-    <row r="141" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="141" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="4">
         <v>214</v>
       </c>
@@ -11787,9 +11535,8 @@
       <c r="AC141" s="4"/>
       <c r="AD141" s="4"/>
       <c r="AE141" s="4"/>
-      <c r="AF141" s="4"/>
-    </row>
-    <row r="142" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="142" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="4">
         <v>215</v>
       </c>
@@ -11865,9 +11612,8 @@
       <c r="AC142" s="4"/>
       <c r="AD142" s="4"/>
       <c r="AE142" s="4"/>
-      <c r="AF142" s="4"/>
-    </row>
-    <row r="143" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="143" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="4">
         <v>216</v>
       </c>
@@ -11932,9 +11678,8 @@
       <c r="T143" s="4">
         <v>139</v>
       </c>
-      <c r="U143" s="4"/>
-    </row>
-    <row r="144" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="144" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="4">
         <v>217</v>
       </c>
@@ -12010,9 +11755,8 @@
       <c r="AC144" s="4"/>
       <c r="AD144" s="4"/>
       <c r="AE144" s="4"/>
-      <c r="AF144" s="4"/>
-    </row>
-    <row r="145" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="145" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="4">
         <v>218</v>
       </c>
@@ -12088,9 +11832,8 @@
       <c r="AC145" s="4"/>
       <c r="AD145" s="4"/>
       <c r="AE145" s="4"/>
-      <c r="AF145" s="4"/>
-    </row>
-    <row r="146" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="146" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="4">
         <v>219</v>
       </c>
@@ -12166,9 +11909,8 @@
       <c r="AC146" s="4"/>
       <c r="AD146" s="4"/>
       <c r="AE146" s="4"/>
-      <c r="AF146" s="4"/>
-    </row>
-    <row r="147" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="147" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="4">
         <v>221</v>
       </c>
@@ -12244,10 +11986,9 @@
       <c r="AC147" s="4"/>
       <c r="AD147" s="4"/>
       <c r="AE147" s="4"/>
-      <c r="AF147" s="4"/>
-    </row>
-    <row r="148" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="16">
+    </row>
+    <row r="148" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="15">
         <v>222</v>
       </c>
       <c r="B148" s="9">
@@ -12311,9 +12052,7 @@
       <c r="T148" s="4">
         <v>109</v>
       </c>
-      <c r="U148" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="U148" s="4"/>
       <c r="V148" s="4"/>
       <c r="W148" s="4"/>
       <c r="X148" s="4"/>
@@ -12324,9 +12063,8 @@
       <c r="AC148" s="4"/>
       <c r="AD148" s="4"/>
       <c r="AE148" s="4"/>
-      <c r="AF148" s="4"/>
-    </row>
-    <row r="149" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="149" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="4">
         <v>223</v>
       </c>
@@ -12402,9 +12140,8 @@
       <c r="AC149" s="4"/>
       <c r="AD149" s="4"/>
       <c r="AE149" s="4"/>
-      <c r="AF149" s="4"/>
-    </row>
-    <row r="150" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="150" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="5">
         <v>224</v>
       </c>
@@ -12469,9 +12206,7 @@
       <c r="T150" s="4">
         <v>136</v>
       </c>
-      <c r="U150" s="4" t="s">
-        <v>30</v>
-      </c>
+      <c r="U150" s="4"/>
       <c r="V150" s="4"/>
       <c r="W150" s="4"/>
       <c r="X150" s="4"/>
@@ -12482,9 +12217,8 @@
       <c r="AC150" s="4"/>
       <c r="AD150" s="4"/>
       <c r="AE150" s="4"/>
-      <c r="AF150" s="4"/>
-    </row>
-    <row r="151" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="151" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="4">
         <v>225</v>
       </c>
@@ -12560,9 +12294,8 @@
       <c r="AC151" s="4"/>
       <c r="AD151" s="4"/>
       <c r="AE151" s="4"/>
-      <c r="AF151" s="4"/>
-    </row>
-    <row r="152" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="152" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="4">
         <v>226</v>
       </c>
@@ -12638,9 +12371,8 @@
       <c r="AC152" s="4"/>
       <c r="AD152" s="4"/>
       <c r="AE152" s="4"/>
-      <c r="AF152" s="4"/>
-    </row>
-    <row r="153" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="153" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="4">
         <v>227</v>
       </c>
@@ -12716,9 +12448,8 @@
       <c r="AC153" s="4"/>
       <c r="AD153" s="4"/>
       <c r="AE153" s="4"/>
-      <c r="AF153" s="4"/>
-    </row>
-    <row r="154" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="154" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="5">
         <v>229</v>
       </c>
@@ -12782,9 +12513,7 @@
       <c r="T154" s="4">
         <v>93</v>
       </c>
-      <c r="U154" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="U154" s="4"/>
       <c r="V154" s="4"/>
       <c r="W154" s="4"/>
       <c r="X154" s="4"/>
@@ -12795,9 +12524,8 @@
       <c r="AC154" s="4"/>
       <c r="AD154" s="4"/>
       <c r="AE154" s="4"/>
-      <c r="AF154" s="4"/>
-    </row>
-    <row r="155" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="155" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="4">
         <v>230</v>
       </c>
@@ -12873,9 +12601,8 @@
       <c r="AC155" s="4"/>
       <c r="AD155" s="4"/>
       <c r="AE155" s="4"/>
-      <c r="AF155" s="4"/>
-    </row>
-    <row r="156" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="156" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="4">
         <v>231</v>
       </c>
@@ -12951,9 +12678,8 @@
       <c r="AC156" s="4"/>
       <c r="AD156" s="4"/>
       <c r="AE156" s="4"/>
-      <c r="AF156" s="4"/>
-    </row>
-    <row r="157" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="157" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="4">
         <v>232</v>
       </c>
@@ -13029,9 +12755,8 @@
       <c r="AC157" s="4"/>
       <c r="AD157" s="4"/>
       <c r="AE157" s="4"/>
-      <c r="AF157" s="4"/>
-    </row>
-    <row r="158" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="158" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="4">
         <v>233</v>
       </c>
@@ -13107,10 +12832,9 @@
       <c r="AC158" s="4"/>
       <c r="AD158" s="4"/>
       <c r="AE158" s="4"/>
-      <c r="AF158" s="4"/>
-    </row>
-    <row r="159" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="16">
+    </row>
+    <row r="159" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="15">
         <v>235</v>
       </c>
       <c r="B159" s="6">
@@ -13174,9 +12898,7 @@
       <c r="T159" s="4">
         <v>150</v>
       </c>
-      <c r="U159" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="U159" s="4"/>
       <c r="V159" s="4"/>
       <c r="W159" s="4"/>
       <c r="X159" s="4"/>
@@ -13187,9 +12909,8 @@
       <c r="AC159" s="4"/>
       <c r="AD159" s="4"/>
       <c r="AE159" s="4"/>
-      <c r="AF159" s="4"/>
-    </row>
-    <row r="160" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="160" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="4">
         <v>236</v>
       </c>
@@ -13265,9 +12986,8 @@
       <c r="AC160" s="4"/>
       <c r="AD160" s="4"/>
       <c r="AE160" s="4"/>
-      <c r="AF160" s="4"/>
-    </row>
-    <row r="161" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="161" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="13">
         <v>237</v>
       </c>
@@ -13332,9 +13052,7 @@
       <c r="T161" s="4">
         <v>95</v>
       </c>
-      <c r="U161" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="U161" s="4"/>
       <c r="V161" s="4"/>
       <c r="W161" s="4"/>
       <c r="X161" s="4"/>
@@ -13345,9 +13063,8 @@
       <c r="AC161" s="4"/>
       <c r="AD161" s="4"/>
       <c r="AE161" s="4"/>
-      <c r="AF161" s="4"/>
-    </row>
-    <row r="162" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="162" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="4">
         <v>238</v>
       </c>
@@ -13423,9 +13140,8 @@
       <c r="AC162" s="4"/>
       <c r="AD162" s="4"/>
       <c r="AE162" s="4"/>
-      <c r="AF162" s="4"/>
-    </row>
-    <row r="163" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="163" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="4">
         <v>242</v>
       </c>
@@ -13501,9 +13217,8 @@
       <c r="AC163" s="4"/>
       <c r="AD163" s="4"/>
       <c r="AE163" s="4"/>
-      <c r="AF163" s="4"/>
-    </row>
-    <row r="164" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="164" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="4">
         <v>243</v>
       </c>
@@ -13579,9 +13294,8 @@
       <c r="AC164" s="4"/>
       <c r="AD164" s="4"/>
       <c r="AE164" s="4"/>
-      <c r="AF164" s="4"/>
-    </row>
-    <row r="165" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="165" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="4">
         <v>244</v>
       </c>
@@ -13657,9 +13371,8 @@
       <c r="AC165" s="4"/>
       <c r="AD165" s="4"/>
       <c r="AE165" s="4"/>
-      <c r="AF165" s="4"/>
-    </row>
-    <row r="166" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="166" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="4">
         <v>245</v>
       </c>
@@ -13735,9 +13448,8 @@
       <c r="AC166" s="4"/>
       <c r="AD166" s="4"/>
       <c r="AE166" s="4"/>
-      <c r="AF166" s="4"/>
-    </row>
-    <row r="167" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="167" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="4">
         <v>247</v>
       </c>
@@ -13813,9 +13525,8 @@
       <c r="AC167" s="4"/>
       <c r="AD167" s="4"/>
       <c r="AE167" s="4"/>
-      <c r="AF167" s="4"/>
-    </row>
-    <row r="168" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="168" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="4">
         <v>248</v>
       </c>
@@ -13891,9 +13602,8 @@
       <c r="AC168" s="4"/>
       <c r="AD168" s="4"/>
       <c r="AE168" s="4"/>
-      <c r="AF168" s="4"/>
-    </row>
-    <row r="169" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="169" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="4">
         <v>249</v>
       </c>
@@ -13969,9 +13679,8 @@
       <c r="AC169" s="4"/>
       <c r="AD169" s="4"/>
       <c r="AE169" s="4"/>
-      <c r="AF169" s="4"/>
-    </row>
-    <row r="170" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="170" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="4">
         <v>250</v>
       </c>
@@ -14047,9 +13756,8 @@
       <c r="AC170" s="4"/>
       <c r="AD170" s="4"/>
       <c r="AE170" s="4"/>
-      <c r="AF170" s="4"/>
-    </row>
-    <row r="171" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="171" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="4">
         <v>251</v>
       </c>
@@ -14125,9 +13833,8 @@
       <c r="AC171" s="4"/>
       <c r="AD171" s="4"/>
       <c r="AE171" s="4"/>
-      <c r="AF171" s="4"/>
-    </row>
-    <row r="172" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="172" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="4">
         <v>253</v>
       </c>
@@ -14203,9 +13910,8 @@
       <c r="AC172" s="4"/>
       <c r="AD172" s="4"/>
       <c r="AE172" s="4"/>
-      <c r="AF172" s="4"/>
-    </row>
-    <row r="173" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="173" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="4">
         <v>254</v>
       </c>
@@ -14281,9 +13987,8 @@
       <c r="AC173" s="4"/>
       <c r="AD173" s="4"/>
       <c r="AE173" s="4"/>
-      <c r="AF173" s="4"/>
-    </row>
-    <row r="174" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="174" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="4">
         <v>255</v>
       </c>
@@ -14359,9 +14064,8 @@
       <c r="AC174" s="4"/>
       <c r="AD174" s="4"/>
       <c r="AE174" s="4"/>
-      <c r="AF174" s="4"/>
-    </row>
-    <row r="175" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="175" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="4">
         <v>256</v>
       </c>
@@ -14437,9 +14141,8 @@
       <c r="AC175" s="4"/>
       <c r="AD175" s="4"/>
       <c r="AE175" s="4"/>
-      <c r="AF175" s="4"/>
-    </row>
-    <row r="176" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="176" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="4">
         <v>257</v>
       </c>
@@ -14515,9 +14218,8 @@
       <c r="AC176" s="4"/>
       <c r="AD176" s="4"/>
       <c r="AE176" s="4"/>
-      <c r="AF176" s="4"/>
-    </row>
-    <row r="177" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="177" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="4">
         <v>258</v>
       </c>
@@ -14593,9 +14295,8 @@
       <c r="AC177" s="4"/>
       <c r="AD177" s="4"/>
       <c r="AE177" s="4"/>
-      <c r="AF177" s="4"/>
-    </row>
-    <row r="178" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="178" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="4">
         <v>259</v>
       </c>
@@ -14671,9 +14372,8 @@
       <c r="AC178" s="4"/>
       <c r="AD178" s="4"/>
       <c r="AE178" s="4"/>
-      <c r="AF178" s="4"/>
-    </row>
-    <row r="179" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="179" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="4">
         <v>260</v>
       </c>
@@ -14749,9 +14449,8 @@
       <c r="AC179" s="4"/>
       <c r="AD179" s="4"/>
       <c r="AE179" s="4"/>
-      <c r="AF179" s="4"/>
-    </row>
-    <row r="180" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="180" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="4">
         <v>261</v>
       </c>
@@ -14827,9 +14526,8 @@
       <c r="AC180" s="4"/>
       <c r="AD180" s="4"/>
       <c r="AE180" s="4"/>
-      <c r="AF180" s="4"/>
-    </row>
-    <row r="181" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="181" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="4">
         <v>263</v>
       </c>
@@ -14905,9 +14603,8 @@
       <c r="AC181" s="4"/>
       <c r="AD181" s="4"/>
       <c r="AE181" s="4"/>
-      <c r="AF181" s="4"/>
-    </row>
-    <row r="182" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="182" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="4">
         <v>264</v>
       </c>
@@ -14983,9 +14680,8 @@
       <c r="AC182" s="4"/>
       <c r="AD182" s="4"/>
       <c r="AE182" s="4"/>
-      <c r="AF182" s="4"/>
-    </row>
-    <row r="183" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="183" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="4">
         <v>265</v>
       </c>
@@ -15061,10 +14757,9 @@
       <c r="AC183" s="4"/>
       <c r="AD183" s="4"/>
       <c r="AE183" s="4"/>
-      <c r="AF183" s="4"/>
-    </row>
-    <row r="184" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="16">
+    </row>
+    <row r="184" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="15">
         <v>266</v>
       </c>
       <c r="B184" s="9">
@@ -15128,9 +14823,7 @@
       <c r="T184" s="4">
         <v>104</v>
       </c>
-      <c r="U184" s="4" t="s">
-        <v>34</v>
-      </c>
+      <c r="U184" s="4"/>
       <c r="V184" s="4"/>
       <c r="W184" s="4"/>
       <c r="X184" s="4"/>
@@ -15141,9 +14834,8 @@
       <c r="AC184" s="4"/>
       <c r="AD184" s="4"/>
       <c r="AE184" s="4"/>
-      <c r="AF184" s="4"/>
-    </row>
-    <row r="185" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="185" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="4">
         <v>267</v>
       </c>
@@ -15219,9 +14911,8 @@
       <c r="AC185" s="4"/>
       <c r="AD185" s="4"/>
       <c r="AE185" s="4"/>
-      <c r="AF185" s="4"/>
-    </row>
-    <row r="186" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="186" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="4">
         <v>268</v>
       </c>
@@ -15297,9 +14988,8 @@
       <c r="AC186" s="4"/>
       <c r="AD186" s="4"/>
       <c r="AE186" s="4"/>
-      <c r="AF186" s="4"/>
-    </row>
-    <row r="187" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="187" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="4">
         <v>269</v>
       </c>
@@ -15375,9 +15065,8 @@
       <c r="AC187" s="4"/>
       <c r="AD187" s="4"/>
       <c r="AE187" s="4"/>
-      <c r="AF187" s="4"/>
-    </row>
-    <row r="188" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="188" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="4">
         <v>270</v>
       </c>
@@ -15453,9 +15142,8 @@
       <c r="AC188" s="4"/>
       <c r="AD188" s="4"/>
       <c r="AE188" s="4"/>
-      <c r="AF188" s="4"/>
-    </row>
-    <row r="189" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="189" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="4">
         <v>271</v>
       </c>
@@ -15531,9 +15219,8 @@
       <c r="AC189" s="4"/>
       <c r="AD189" s="4"/>
       <c r="AE189" s="4"/>
-      <c r="AF189" s="4"/>
-    </row>
-    <row r="190" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="190" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="4">
         <v>272</v>
       </c>
@@ -15609,9 +15296,8 @@
       <c r="AC190" s="4"/>
       <c r="AD190" s="4"/>
       <c r="AE190" s="4"/>
-      <c r="AF190" s="4"/>
-    </row>
-    <row r="191" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="191" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="4">
         <v>273</v>
       </c>
@@ -15687,9 +15373,8 @@
       <c r="AC191" s="4"/>
       <c r="AD191" s="4"/>
       <c r="AE191" s="4"/>
-      <c r="AF191" s="4"/>
-    </row>
-    <row r="192" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="192" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="4">
         <v>278</v>
       </c>
@@ -15740,19 +15425,19 @@
         <v>49</v>
       </c>
       <c r="P192" s="4" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="Q192" s="4" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="R192" s="4" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="S192" s="4" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="T192" s="4" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="U192" s="4"/>
       <c r="V192" s="4"/>
@@ -15765,9 +15450,8 @@
       <c r="AC192" s="4"/>
       <c r="AD192" s="4"/>
       <c r="AE192" s="4"/>
-      <c r="AF192" s="4"/>
-    </row>
-    <row r="193" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="193" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="4">
         <v>279</v>
       </c>
@@ -15843,9 +15527,8 @@
       <c r="AC193" s="4"/>
       <c r="AD193" s="4"/>
       <c r="AE193" s="4"/>
-      <c r="AF193" s="4"/>
-    </row>
-    <row r="194" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="194" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="4">
         <v>282</v>
       </c>
@@ -15921,9 +15604,8 @@
       <c r="AC194" s="4"/>
       <c r="AD194" s="4"/>
       <c r="AE194" s="4"/>
-      <c r="AF194" s="4"/>
-    </row>
-    <row r="195" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="195" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="4">
         <v>283</v>
       </c>
@@ -15986,9 +15668,7 @@
       <c r="T195" s="4">
         <v>112</v>
       </c>
-      <c r="U195" s="4" t="s">
-        <v>35</v>
-      </c>
+      <c r="U195" s="4"/>
       <c r="V195" s="4"/>
       <c r="W195" s="4"/>
       <c r="X195" s="4"/>
@@ -15999,9 +15679,8 @@
       <c r="AC195" s="4"/>
       <c r="AD195" s="4"/>
       <c r="AE195" s="4"/>
-      <c r="AF195" s="4"/>
-    </row>
-    <row r="196" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="196" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="4">
         <v>285</v>
       </c>
@@ -16077,9 +15756,8 @@
       <c r="AC196" s="4"/>
       <c r="AD196" s="4"/>
       <c r="AE196" s="4"/>
-      <c r="AF196" s="4"/>
-    </row>
-    <row r="197" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="197" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="4">
         <v>287</v>
       </c>
@@ -16155,9 +15833,8 @@
       <c r="AC197" s="4"/>
       <c r="AD197" s="4"/>
       <c r="AE197" s="4"/>
-      <c r="AF197" s="4"/>
-    </row>
-    <row r="198" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="198" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="4">
         <v>288</v>
       </c>
@@ -16233,9 +15910,8 @@
       <c r="AC198" s="4"/>
       <c r="AD198" s="4"/>
       <c r="AE198" s="4"/>
-      <c r="AF198" s="4"/>
-    </row>
-    <row r="199" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="199" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="4">
         <v>289</v>
       </c>
@@ -16311,9 +15987,8 @@
       <c r="AC199" s="4"/>
       <c r="AD199" s="4"/>
       <c r="AE199" s="4"/>
-      <c r="AF199" s="4"/>
-    </row>
-    <row r="200" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="200" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="4">
         <v>290</v>
       </c>
@@ -16389,9 +16064,8 @@
       <c r="AC200" s="4"/>
       <c r="AD200" s="4"/>
       <c r="AE200" s="4"/>
-      <c r="AF200" s="4"/>
-    </row>
-    <row r="201" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="201" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="4">
         <v>292</v>
       </c>
@@ -16467,9 +16141,8 @@
       <c r="AC201" s="4"/>
       <c r="AD201" s="4"/>
       <c r="AE201" s="4"/>
-      <c r="AF201" s="4"/>
-    </row>
-    <row r="202" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="202" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="4">
         <v>293</v>
       </c>
@@ -16545,9 +16218,8 @@
       <c r="AC202" s="4"/>
       <c r="AD202" s="4"/>
       <c r="AE202" s="4"/>
-      <c r="AF202" s="4"/>
-    </row>
-    <row r="203" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="203" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="4">
         <v>295</v>
       </c>
@@ -16623,9 +16295,8 @@
       <c r="AC203" s="4"/>
       <c r="AD203" s="4"/>
       <c r="AE203" s="4"/>
-      <c r="AF203" s="4"/>
-    </row>
-    <row r="204" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="204" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="4">
         <v>296</v>
       </c>
@@ -16701,9 +16372,8 @@
       <c r="AC204" s="4"/>
       <c r="AD204" s="4"/>
       <c r="AE204" s="4"/>
-      <c r="AF204" s="4"/>
-    </row>
-    <row r="205" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="205" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="4">
         <v>297</v>
       </c>
@@ -16779,9 +16449,8 @@
       <c r="AC205" s="4"/>
       <c r="AD205" s="4"/>
       <c r="AE205" s="4"/>
-      <c r="AF205" s="4"/>
-    </row>
-    <row r="206" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="206" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="4">
         <v>298</v>
       </c>
@@ -16857,9 +16526,8 @@
       <c r="AC206" s="4"/>
       <c r="AD206" s="4"/>
       <c r="AE206" s="4"/>
-      <c r="AF206" s="4"/>
-    </row>
-    <row r="207" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="207" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="4">
         <v>302</v>
       </c>
@@ -16935,9 +16603,8 @@
       <c r="AC207" s="4"/>
       <c r="AD207" s="4"/>
       <c r="AE207" s="4"/>
-      <c r="AF207" s="4"/>
-    </row>
-    <row r="208" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="208" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="4">
         <v>303</v>
       </c>
@@ -17013,9 +16680,8 @@
       <c r="AC208" s="4"/>
       <c r="AD208" s="4"/>
       <c r="AE208" s="4"/>
-      <c r="AF208" s="4"/>
-    </row>
-    <row r="209" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="209" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="4">
         <v>304</v>
       </c>
@@ -17091,9 +16757,8 @@
       <c r="AC209" s="4"/>
       <c r="AD209" s="4"/>
       <c r="AE209" s="4"/>
-      <c r="AF209" s="4"/>
-    </row>
-    <row r="210" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="210" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="4">
         <v>305</v>
       </c>
@@ -17169,9 +16834,8 @@
       <c r="AC210" s="4"/>
       <c r="AD210" s="4"/>
       <c r="AE210" s="4"/>
-      <c r="AF210" s="4"/>
-    </row>
-    <row r="211" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="211" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="4">
         <v>306</v>
       </c>
@@ -17247,9 +16911,8 @@
       <c r="AC211" s="4"/>
       <c r="AD211" s="4"/>
       <c r="AE211" s="4"/>
-      <c r="AF211" s="4"/>
-    </row>
-    <row r="212" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="212" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="4">
         <v>307</v>
       </c>
@@ -17325,10 +16988,9 @@
       <c r="AC212" s="4"/>
       <c r="AD212" s="4"/>
       <c r="AE212" s="4"/>
-      <c r="AF212" s="4"/>
-    </row>
-    <row r="213" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A213" s="16">
+    </row>
+    <row r="213" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A213" s="15">
         <v>308</v>
       </c>
       <c r="B213" s="6">
@@ -17392,9 +17054,7 @@
       <c r="T213" s="4">
         <v>120</v>
       </c>
-      <c r="U213" s="4" t="s">
-        <v>36</v>
-      </c>
+      <c r="U213" s="4"/>
       <c r="V213" s="4"/>
       <c r="W213" s="4"/>
       <c r="X213" s="4"/>
@@ -17405,9 +17065,8 @@
       <c r="AC213" s="4"/>
       <c r="AD213" s="4"/>
       <c r="AE213" s="4"/>
-      <c r="AF213" s="4"/>
-    </row>
-    <row r="214" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="214" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="4">
         <v>309</v>
       </c>
@@ -17483,9 +17142,8 @@
       <c r="AC214" s="4"/>
       <c r="AD214" s="4"/>
       <c r="AE214" s="4"/>
-      <c r="AF214" s="4"/>
-    </row>
-    <row r="215" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="215" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="4">
         <v>310</v>
       </c>
@@ -17561,9 +17219,8 @@
       <c r="AC215" s="4"/>
       <c r="AD215" s="4"/>
       <c r="AE215" s="4"/>
-      <c r="AF215" s="4"/>
-    </row>
-    <row r="216" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="216" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="4">
         <v>311</v>
       </c>
@@ -17639,9 +17296,8 @@
       <c r="AC216" s="4"/>
       <c r="AD216" s="4"/>
       <c r="AE216" s="4"/>
-      <c r="AF216" s="4"/>
-    </row>
-    <row r="217" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="217" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="4">
         <v>312</v>
       </c>
@@ -17717,9 +17373,8 @@
       <c r="AC217" s="4"/>
       <c r="AD217" s="4"/>
       <c r="AE217" s="4"/>
-      <c r="AF217" s="4"/>
-    </row>
-    <row r="218" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="218" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="4">
         <v>313</v>
       </c>
@@ -17795,9 +17450,8 @@
       <c r="AC218" s="4"/>
       <c r="AD218" s="4"/>
       <c r="AE218" s="4"/>
-      <c r="AF218" s="4"/>
-    </row>
-    <row r="219" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="219" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="4">
         <v>314</v>
       </c>
@@ -17873,9 +17527,8 @@
       <c r="AC219" s="4"/>
       <c r="AD219" s="4"/>
       <c r="AE219" s="4"/>
-      <c r="AF219" s="4"/>
-    </row>
-    <row r="220" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="220" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="4">
         <v>317</v>
       </c>
@@ -17951,9 +17604,8 @@
       <c r="AC220" s="4"/>
       <c r="AD220" s="4"/>
       <c r="AE220" s="4"/>
-      <c r="AF220" s="4"/>
-    </row>
-    <row r="221" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="221" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="4">
         <v>320</v>
       </c>
@@ -18004,19 +17656,19 @@
         <v>68</v>
       </c>
       <c r="P221" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="Q221" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="R221" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="S221" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="T221" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="U221" s="4"/>
       <c r="V221" s="4"/>
@@ -18029,10 +17681,9 @@
       <c r="AC221" s="4"/>
       <c r="AD221" s="4"/>
       <c r="AE221" s="4"/>
-      <c r="AF221" s="4"/>
-    </row>
-    <row r="222" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="16">
+    </row>
+    <row r="222" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A222" s="15">
         <v>321</v>
       </c>
       <c r="B222" s="9">
@@ -18082,23 +17733,21 @@
         <v>62</v>
       </c>
       <c r="P222" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="Q222" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="R222" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="S222" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="T222" t="s">
-        <v>42</v>
-      </c>
-      <c r="U222" s="4" t="s">
-        <v>37</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="U222" s="4"/>
       <c r="V222" s="4"/>
       <c r="W222" s="4"/>
       <c r="X222" s="4"/>
@@ -18109,10 +17758,9 @@
       <c r="AC222" s="4"/>
       <c r="AD222" s="4"/>
       <c r="AE222" s="4"/>
-      <c r="AF222" s="4"/>
-    </row>
-    <row r="223" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="16">
+    </row>
+    <row r="223" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A223" s="15">
         <v>322</v>
       </c>
       <c r="B223" s="6">
@@ -18176,9 +17824,7 @@
       <c r="T223" s="4">
         <v>142</v>
       </c>
-      <c r="U223" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="U223" s="4"/>
       <c r="V223" s="4"/>
       <c r="W223" s="4"/>
       <c r="X223" s="4"/>
@@ -18189,9 +17835,8 @@
       <c r="AC223" s="4"/>
       <c r="AD223" s="4"/>
       <c r="AE223" s="4"/>
-      <c r="AF223" s="4"/>
-    </row>
-    <row r="224" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="224" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="4">
         <v>323</v>
       </c>
@@ -18242,19 +17887,19 @@
         <v>65</v>
       </c>
       <c r="P224" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="Q224" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="R224" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="S224" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="T224" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="U224" s="4"/>
       <c r="V224" s="4"/>
@@ -18267,9 +17912,8 @@
       <c r="AC224" s="4"/>
       <c r="AD224" s="4"/>
       <c r="AE224" s="4"/>
-      <c r="AF224" s="4"/>
-    </row>
-    <row r="225" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="225" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="4">
         <v>324</v>
       </c>
@@ -18320,19 +17964,19 @@
         <v>57</v>
       </c>
       <c r="P225" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="Q225" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="R225" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="S225" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="T225" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="U225" s="4"/>
       <c r="V225" s="4"/>
@@ -18345,9 +17989,8 @@
       <c r="AC225" s="4"/>
       <c r="AD225" s="4"/>
       <c r="AE225" s="4"/>
-      <c r="AF225" s="4"/>
-    </row>
-    <row r="226" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="226" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="4">
         <v>325</v>
       </c>
@@ -18398,19 +18041,19 @@
         <v>93</v>
       </c>
       <c r="P226" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="Q226" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="R226" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="S226" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="T226" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="U226" s="4"/>
       <c r="V226" s="4"/>
@@ -18423,9 +18066,8 @@
       <c r="AC226" s="4"/>
       <c r="AD226" s="4"/>
       <c r="AE226" s="4"/>
-      <c r="AF226" s="4"/>
-    </row>
-    <row r="227" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="227" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="4">
         <v>326</v>
       </c>
@@ -18476,19 +18118,19 @@
         <v>49</v>
       </c>
       <c r="P227" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="Q227" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="R227" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="S227" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="T227" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="U227" s="4"/>
       <c r="V227" s="4"/>
@@ -18501,9 +18143,8 @@
       <c r="AC227" s="4"/>
       <c r="AD227" s="4"/>
       <c r="AE227" s="4"/>
-      <c r="AF227" s="4"/>
-    </row>
-    <row r="228" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="228" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="4">
         <v>327</v>
       </c>
@@ -18579,9 +18220,8 @@
       <c r="AC228" s="4"/>
       <c r="AD228" s="4"/>
       <c r="AE228" s="4"/>
-      <c r="AF228" s="4"/>
-    </row>
-    <row r="229" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="229" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="4">
         <v>330</v>
       </c>
@@ -18632,19 +18272,19 @@
         <v>50</v>
       </c>
       <c r="P229" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="Q229" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="R229" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="S229" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="T229" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="U229" s="4"/>
       <c r="V229" s="4"/>
@@ -18657,9 +18297,8 @@
       <c r="AC229" s="4"/>
       <c r="AD229" s="4"/>
       <c r="AE229" s="4"/>
-      <c r="AF229" s="4"/>
-    </row>
-    <row r="230" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="230" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="4">
         <v>331</v>
       </c>
@@ -18710,19 +18349,19 @@
         <v>52</v>
       </c>
       <c r="P230" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="Q230" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="R230" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="S230" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="T230" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="U230" s="4"/>
       <c r="V230" s="4"/>
@@ -18735,9 +18374,8 @@
       <c r="AC230" s="4"/>
       <c r="AD230" s="4"/>
       <c r="AE230" s="4"/>
-      <c r="AF230" s="4"/>
-    </row>
-    <row r="231" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="231" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="4">
         <v>332</v>
       </c>
@@ -18788,19 +18426,19 @@
         <v>55</v>
       </c>
       <c r="P231" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="Q231" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="R231" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="S231" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="T231" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="U231" s="4"/>
       <c r="V231" s="4"/>
@@ -18813,9 +18451,8 @@
       <c r="AC231" s="4"/>
       <c r="AD231" s="4"/>
       <c r="AE231" s="4"/>
-      <c r="AF231" s="4"/>
-    </row>
-    <row r="232" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="232" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="4">
         <v>333</v>
       </c>
@@ -18866,19 +18503,19 @@
         <v>61</v>
       </c>
       <c r="P232" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="Q232" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="R232" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="S232" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="T232" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="U232" s="4"/>
       <c r="V232" s="4"/>
@@ -18891,9 +18528,8 @@
       <c r="AC232" s="4"/>
       <c r="AD232" s="4"/>
       <c r="AE232" s="4"/>
-      <c r="AF232" s="4"/>
-    </row>
-    <row r="233" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="233" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="4">
         <v>335</v>
       </c>
@@ -18944,19 +18580,19 @@
         <v>46</v>
       </c>
       <c r="P233" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="Q233" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="R233" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="S233" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="T233" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="U233" s="4"/>
       <c r="V233" s="4"/>
@@ -18969,9 +18605,8 @@
       <c r="AC233" s="4"/>
       <c r="AD233" s="4"/>
       <c r="AE233" s="4"/>
-      <c r="AF233" s="4"/>
-    </row>
-    <row r="234" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="234" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="4">
         <v>336</v>
       </c>
@@ -19022,19 +18657,19 @@
         <v>67</v>
       </c>
       <c r="P234" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="Q234" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="R234" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="S234" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="T234" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="U234" s="4"/>
       <c r="V234" s="4"/>
@@ -19047,9 +18682,8 @@
       <c r="AC234" s="4"/>
       <c r="AD234" s="4"/>
       <c r="AE234" s="4"/>
-      <c r="AF234" s="4"/>
-    </row>
-    <row r="235" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="235" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="4">
         <v>337</v>
       </c>
@@ -19100,19 +18734,19 @@
         <v>64</v>
       </c>
       <c r="P235" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="Q235" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="R235" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="S235" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="T235" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="U235" s="4"/>
       <c r="V235" s="4"/>
@@ -19125,9 +18759,8 @@
       <c r="AC235" s="4"/>
       <c r="AD235" s="4"/>
       <c r="AE235" s="4"/>
-      <c r="AF235" s="4"/>
-    </row>
-    <row r="236" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="236" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="4">
         <v>338</v>
       </c>
@@ -19178,19 +18811,19 @@
         <v>54</v>
       </c>
       <c r="P236" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="Q236" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="R236" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="S236" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="T236" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="U236" s="4"/>
       <c r="V236" s="4"/>
@@ -19203,9 +18836,8 @@
       <c r="AC236" s="4"/>
       <c r="AD236" s="4"/>
       <c r="AE236" s="4"/>
-      <c r="AF236" s="4"/>
-    </row>
-    <row r="237" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="237" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="4">
         <v>339</v>
       </c>
@@ -19256,19 +18888,19 @@
         <v>61</v>
       </c>
       <c r="P237" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="Q237" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="R237" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="S237" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="T237" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="U237" s="4"/>
       <c r="V237" s="4"/>
@@ -19281,9 +18913,8 @@
       <c r="AC237" s="4"/>
       <c r="AD237" s="4"/>
       <c r="AE237" s="4"/>
-      <c r="AF237" s="4"/>
-    </row>
-    <row r="238" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="238" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="4">
         <v>340</v>
       </c>
@@ -19359,9 +18990,8 @@
       <c r="AC238" s="4"/>
       <c r="AD238" s="4"/>
       <c r="AE238" s="4"/>
-      <c r="AF238" s="4"/>
-    </row>
-    <row r="239" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="239" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="4">
         <v>341</v>
       </c>
@@ -19412,19 +19042,19 @@
         <v>58</v>
       </c>
       <c r="P239" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="Q239" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="R239" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="S239" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="T239" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="U239" s="4"/>
       <c r="V239" s="4"/>
@@ -19437,9 +19067,8 @@
       <c r="AC239" s="4"/>
       <c r="AD239" s="4"/>
       <c r="AE239" s="4"/>
-      <c r="AF239" s="4"/>
-    </row>
-    <row r="240" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="240" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="4">
         <v>342</v>
       </c>
@@ -19490,19 +19119,19 @@
         <v>58</v>
       </c>
       <c r="P240" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="Q240" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="R240" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="S240" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="T240" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="U240" s="4"/>
       <c r="V240" s="4"/>
@@ -19515,10 +19144,9 @@
       <c r="AC240" s="4"/>
       <c r="AD240" s="4"/>
       <c r="AE240" s="4"/>
-      <c r="AF240" s="4"/>
-    </row>
-    <row r="241" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A241" s="16">
+    </row>
+    <row r="241" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A241" s="15">
         <v>345</v>
       </c>
       <c r="B241" s="6">
@@ -19568,23 +19196,21 @@
         <v>48</v>
       </c>
       <c r="P241" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="Q241" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="R241" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="S241" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="T241" t="s">
-        <v>42</v>
-      </c>
-      <c r="U241" s="4" t="s">
-        <v>38</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="U241" s="4"/>
       <c r="V241" s="4"/>
       <c r="W241" s="4"/>
       <c r="X241" s="4"/>
@@ -19595,9 +19221,8 @@
       <c r="AC241" s="4"/>
       <c r="AD241" s="4"/>
       <c r="AE241" s="4"/>
-      <c r="AF241" s="4"/>
-    </row>
-    <row r="242" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="242" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="4">
         <v>346</v>
       </c>
@@ -19673,9 +19298,8 @@
       <c r="AC242" s="4"/>
       <c r="AD242" s="4"/>
       <c r="AE242" s="4"/>
-      <c r="AF242" s="4"/>
-    </row>
-    <row r="243" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="243" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="4">
         <v>348</v>
       </c>
@@ -19726,19 +19350,19 @@
         <v>51</v>
       </c>
       <c r="P243" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="Q243" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="R243" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="S243" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="T243" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="U243" s="4"/>
       <c r="V243" s="4"/>
@@ -19751,9 +19375,8 @@
       <c r="AC243" s="4"/>
       <c r="AD243" s="4"/>
       <c r="AE243" s="4"/>
-      <c r="AF243" s="4"/>
-    </row>
-    <row r="244" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="244" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="4">
         <v>349</v>
       </c>
@@ -19829,9 +19452,8 @@
       <c r="AC244" s="4"/>
       <c r="AD244" s="4"/>
       <c r="AE244" s="4"/>
-      <c r="AF244" s="4"/>
-    </row>
-    <row r="245" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="245" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="4">
         <v>350</v>
       </c>
@@ -19882,19 +19504,19 @@
         <v>50</v>
       </c>
       <c r="P245" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="Q245" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="R245" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="S245" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="T245" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="U245" s="4"/>
       <c r="V245" s="4"/>
@@ -19907,9 +19529,8 @@
       <c r="AC245" s="4"/>
       <c r="AD245" s="4"/>
       <c r="AE245" s="4"/>
-      <c r="AF245" s="4"/>
-    </row>
-    <row r="246" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="246" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="4">
         <v>351</v>
       </c>
@@ -19960,19 +19581,19 @@
         <v>53</v>
       </c>
       <c r="P246" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="Q246" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="R246" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="S246" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="T246" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="U246" s="4"/>
       <c r="V246" s="4"/>
@@ -19985,9 +19606,8 @@
       <c r="AC246" s="4"/>
       <c r="AD246" s="4"/>
       <c r="AE246" s="4"/>
-      <c r="AF246" s="4"/>
-    </row>
-    <row r="247" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="247" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="4">
         <v>352</v>
       </c>
@@ -20038,19 +19658,19 @@
         <v>61</v>
       </c>
       <c r="P247" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="Q247" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="R247" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="S247" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="T247" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="U247" s="4"/>
       <c r="V247" s="4"/>
@@ -20063,9 +19683,8 @@
       <c r="AC247" s="4"/>
       <c r="AD247" s="4"/>
       <c r="AE247" s="4"/>
-      <c r="AF247" s="4"/>
-    </row>
-    <row r="248" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="248" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="4">
         <v>353</v>
       </c>
@@ -20141,9 +19760,8 @@
       <c r="AC248" s="4"/>
       <c r="AD248" s="4"/>
       <c r="AE248" s="4"/>
-      <c r="AF248" s="4"/>
-    </row>
-    <row r="249" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="249" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="4">
         <v>355</v>
       </c>
@@ -20194,19 +19812,19 @@
         <v>53</v>
       </c>
       <c r="P249" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="Q249" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="R249" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="S249" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="T249" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="U249" s="4"/>
       <c r="V249" s="4"/>
@@ -20219,9 +19837,8 @@
       <c r="AC249" s="4"/>
       <c r="AD249" s="4"/>
       <c r="AE249" s="4"/>
-      <c r="AF249" s="4"/>
-    </row>
-    <row r="250" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="250" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="4">
         <v>356</v>
       </c>
@@ -20272,19 +19889,19 @@
         <v>57</v>
       </c>
       <c r="P250" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="Q250" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="R250" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="S250" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="T250" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="U250" s="4"/>
       <c r="V250" s="4"/>
@@ -20297,9 +19914,8 @@
       <c r="AC250" s="4"/>
       <c r="AD250" s="4"/>
       <c r="AE250" s="4"/>
-      <c r="AF250" s="4"/>
-    </row>
-    <row r="251" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="251" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="4">
         <v>358</v>
       </c>
@@ -20350,19 +19966,19 @@
         <v>56</v>
       </c>
       <c r="P251" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="Q251" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="R251" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="S251" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="T251" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="U251" s="4"/>
       <c r="V251" s="4"/>
@@ -20375,9 +19991,8 @@
       <c r="AC251" s="4"/>
       <c r="AD251" s="4"/>
       <c r="AE251" s="4"/>
-      <c r="AF251" s="4"/>
-    </row>
-    <row r="252" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="252" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="4">
         <v>359</v>
       </c>
@@ -20428,19 +20043,19 @@
         <v>54</v>
       </c>
       <c r="P252" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="Q252" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="R252" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="S252" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="T252" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="U252" s="4"/>
       <c r="V252" s="4"/>
@@ -20453,9 +20068,8 @@
       <c r="AC252" s="4"/>
       <c r="AD252" s="4"/>
       <c r="AE252" s="4"/>
-      <c r="AF252" s="4"/>
-    </row>
-    <row r="253" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="253" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="4">
         <v>362</v>
       </c>
@@ -20506,19 +20120,19 @@
         <v>52</v>
       </c>
       <c r="P253" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="Q253" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="R253" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="S253" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="T253" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="U253" s="4"/>
       <c r="V253" s="4"/>
@@ -20531,9 +20145,8 @@
       <c r="AC253" s="4"/>
       <c r="AD253" s="4"/>
       <c r="AE253" s="4"/>
-      <c r="AF253" s="4"/>
-    </row>
-    <row r="254" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="254" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="4">
         <v>363</v>
       </c>
@@ -20584,19 +20197,19 @@
         <v>69</v>
       </c>
       <c r="P254" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="Q254" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="R254" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="S254" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="T254" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="U254" s="4"/>
       <c r="V254" s="4"/>
@@ -20609,11 +20222,10 @@
       <c r="AC254" s="4"/>
       <c r="AD254" s="4"/>
       <c r="AE254" s="4"/>
-      <c r="AF254" s="4"/>
-    </row>
-    <row r="255" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A255" s="18" t="s">
-        <v>39</v>
+    </row>
+    <row r="255" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A255" s="17" t="s">
+        <v>15</v>
       </c>
       <c r="B255" s="6"/>
       <c r="C255" s="7">
@@ -20660,19 +20272,19 @@
         <v>60</v>
       </c>
       <c r="P255" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="Q255" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="R255" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="S255" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="T255" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="U255" s="4"/>
       <c r="V255" s="4"/>
@@ -20685,11 +20297,10 @@
       <c r="AC255" s="4"/>
       <c r="AD255" s="4"/>
       <c r="AE255" s="4"/>
-      <c r="AF255" s="4"/>
-    </row>
-    <row r="256" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A256" s="18" t="s">
-        <v>39</v>
+    </row>
+    <row r="256" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A256" s="17" t="s">
+        <v>15</v>
       </c>
       <c r="B256" s="9"/>
       <c r="C256" s="7">
@@ -20736,19 +20347,19 @@
         <v>59</v>
       </c>
       <c r="P256" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="Q256" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="R256" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="S256" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="T256" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="U256" s="4"/>
       <c r="V256" s="4"/>
@@ -20761,15 +20372,14 @@
       <c r="AC256" s="4"/>
       <c r="AD256" s="4"/>
       <c r="AE256" s="4"/>
-      <c r="AF256" s="4"/>
-    </row>
-    <row r="257" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A257" s="18" t="s">
-        <v>39</v>
+    </row>
+    <row r="257" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A257" s="17" t="s">
+        <v>15</v>
       </c>
       <c r="B257" s="4"/>
       <c r="C257" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D257" s="4">
         <v>36</v>
@@ -20794,31 +20404,29 @@
         <v>76.923076923076934</v>
       </c>
       <c r="J257" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="K257" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="L257" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="M257" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="N257" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="O257" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="P257" s="4"/>
       <c r="Q257" s="4"/>
       <c r="R257" s="4"/>
       <c r="S257" s="4"/>
       <c r="T257" s="4"/>
-      <c r="U257" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="U257" s="4"/>
       <c r="V257" s="4"/>
       <c r="W257" s="4"/>
       <c r="X257" s="4"/>
@@ -20829,15 +20437,14 @@
       <c r="AC257" s="4"/>
       <c r="AD257" s="4"/>
       <c r="AE257" s="4"/>
-      <c r="AF257" s="4"/>
-    </row>
-    <row r="258" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A258" s="18" t="s">
-        <v>39</v>
+    </row>
+    <row r="258" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A258" s="17" t="s">
+        <v>15</v>
       </c>
       <c r="B258" s="4"/>
       <c r="C258" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D258" s="4">
         <v>43</v>
@@ -20862,31 +20469,29 @@
         <v>80.769230769230774</v>
       </c>
       <c r="J258" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="K258" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="L258" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="M258" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="N258" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="O258" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="P258" s="4"/>
       <c r="Q258" s="4"/>
       <c r="R258" s="4"/>
       <c r="S258" s="4"/>
       <c r="T258" s="4"/>
-      <c r="U258" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="U258" s="4"/>
       <c r="V258" s="4"/>
       <c r="W258" s="4"/>
       <c r="X258" s="4"/>
@@ -20897,15 +20502,14 @@
       <c r="AC258" s="4"/>
       <c r="AD258" s="4"/>
       <c r="AE258" s="4"/>
-      <c r="AF258" s="4"/>
-    </row>
-    <row r="259" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A259" s="18" t="s">
-        <v>39</v>
+    </row>
+    <row r="259" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A259" s="17" t="s">
+        <v>15</v>
       </c>
       <c r="B259" s="4"/>
       <c r="C259" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D259" s="4">
         <v>35</v>
@@ -20930,31 +20534,29 @@
         <v>72.115384615384613</v>
       </c>
       <c r="J259" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="K259" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="L259" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="M259" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="N259" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="O259" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="P259" s="4"/>
       <c r="Q259" s="4"/>
       <c r="R259" s="4"/>
       <c r="S259" s="4"/>
       <c r="T259" s="4"/>
-      <c r="U259" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="U259" s="4"/>
       <c r="V259" s="4"/>
       <c r="W259" s="4"/>
       <c r="X259" s="4"/>
@@ -20965,15 +20567,14 @@
       <c r="AC259" s="4"/>
       <c r="AD259" s="4"/>
       <c r="AE259" s="4"/>
-      <c r="AF259" s="4"/>
-    </row>
-    <row r="260" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A260" s="18" t="s">
-        <v>39</v>
+    </row>
+    <row r="260" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A260" s="17" t="s">
+        <v>15</v>
       </c>
       <c r="B260" s="4"/>
       <c r="C260" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D260" s="4">
         <v>27</v>
@@ -20998,31 +20599,29 @@
         <v>56.730769230769226</v>
       </c>
       <c r="J260" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="K260" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="L260" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="M260" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="N260" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="O260" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="P260" s="4"/>
       <c r="Q260" s="4"/>
       <c r="R260" s="4"/>
       <c r="S260" s="4"/>
       <c r="T260" s="4"/>
-      <c r="U260" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="U260" s="4"/>
       <c r="V260" s="4"/>
       <c r="W260" s="4"/>
       <c r="X260" s="4"/>
@@ -21033,15 +20632,14 @@
       <c r="AC260" s="4"/>
       <c r="AD260" s="4"/>
       <c r="AE260" s="4"/>
-      <c r="AF260" s="4"/>
-    </row>
-    <row r="261" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A261" s="18" t="s">
-        <v>39</v>
+    </row>
+    <row r="261" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A261" s="17" t="s">
+        <v>15</v>
       </c>
       <c r="B261" s="4"/>
       <c r="C261" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D261" s="4">
         <v>32</v>
@@ -21066,31 +20664,29 @@
         <v>65.384615384615387</v>
       </c>
       <c r="J261" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="K261" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="L261" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="M261" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="N261" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="O261" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="P261" s="4"/>
       <c r="Q261" s="4"/>
       <c r="R261" s="4"/>
       <c r="S261" s="4"/>
       <c r="T261" s="4"/>
-      <c r="U261" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="U261" s="4"/>
       <c r="V261" s="4"/>
       <c r="W261" s="4"/>
       <c r="X261" s="4"/>
@@ -21101,15 +20697,14 @@
       <c r="AC261" s="4"/>
       <c r="AD261" s="4"/>
       <c r="AE261" s="4"/>
-      <c r="AF261" s="4"/>
-    </row>
-    <row r="262" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A262" s="18" t="s">
-        <v>39</v>
+    </row>
+    <row r="262" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A262" s="17" t="s">
+        <v>15</v>
       </c>
       <c r="B262" s="4"/>
       <c r="C262" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D262" s="4">
         <v>31</v>
@@ -21134,31 +20729,29 @@
         <v>67.307692307692307</v>
       </c>
       <c r="J262" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="K262" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="L262" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="M262" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="N262" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="O262" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="P262" s="4"/>
       <c r="Q262" s="4"/>
       <c r="R262" s="4"/>
       <c r="S262" s="4"/>
       <c r="T262" s="4"/>
-      <c r="U262" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="U262" s="4"/>
       <c r="V262" s="4"/>
       <c r="W262" s="4"/>
       <c r="X262" s="4"/>
@@ -21169,15 +20762,14 @@
       <c r="AC262" s="4"/>
       <c r="AD262" s="4"/>
       <c r="AE262" s="4"/>
-      <c r="AF262" s="4"/>
-    </row>
-    <row r="263" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A263" s="18" t="s">
-        <v>39</v>
+    </row>
+    <row r="263" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A263" s="17" t="s">
+        <v>15</v>
       </c>
       <c r="B263" s="4"/>
       <c r="C263" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D263" s="4">
         <v>37</v>
@@ -21202,31 +20794,29 @@
         <v>71.15384615384616</v>
       </c>
       <c r="J263" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="K263" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="L263" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="M263" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="N263" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="O263" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="P263" s="4"/>
       <c r="Q263" s="4"/>
       <c r="R263" s="4"/>
       <c r="S263" s="4"/>
       <c r="T263" s="4"/>
-      <c r="U263" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="U263" s="4"/>
       <c r="V263" s="4"/>
       <c r="W263" s="4"/>
       <c r="X263" s="4"/>
@@ -21237,15 +20827,14 @@
       <c r="AC263" s="4"/>
       <c r="AD263" s="4"/>
       <c r="AE263" s="4"/>
-      <c r="AF263" s="4"/>
-    </row>
-    <row r="264" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A264" s="18" t="s">
-        <v>39</v>
+    </row>
+    <row r="264" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A264" s="17" t="s">
+        <v>15</v>
       </c>
       <c r="B264" s="4"/>
       <c r="C264" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D264" s="4">
         <v>42</v>
@@ -21270,31 +20859,29 @@
         <v>80.769230769230774</v>
       </c>
       <c r="J264" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="K264" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="L264" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="M264" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="N264" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="O264" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="P264" s="4"/>
       <c r="Q264" s="4"/>
       <c r="R264" s="4"/>
       <c r="S264" s="4"/>
       <c r="T264" s="4"/>
-      <c r="U264" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="U264" s="4"/>
       <c r="V264" s="4"/>
       <c r="W264" s="4"/>
       <c r="X264" s="4"/>
@@ -21305,15 +20892,14 @@
       <c r="AC264" s="4"/>
       <c r="AD264" s="4"/>
       <c r="AE264" s="4"/>
-      <c r="AF264" s="4"/>
-    </row>
-    <row r="265" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A265" s="18" t="s">
-        <v>39</v>
+    </row>
+    <row r="265" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A265" s="17" t="s">
+        <v>15</v>
       </c>
       <c r="B265" s="4"/>
       <c r="C265" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D265" s="4">
         <v>43</v>
@@ -21338,31 +20924,29 @@
         <v>83.65384615384616</v>
       </c>
       <c r="J265" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="K265" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="L265" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="M265" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="N265" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="O265" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="P265" s="4"/>
       <c r="Q265" s="4"/>
       <c r="R265" s="4"/>
       <c r="S265" s="4"/>
       <c r="T265" s="4"/>
-      <c r="U265" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="U265" s="4"/>
       <c r="V265" s="4"/>
       <c r="W265" s="4"/>
       <c r="X265" s="4"/>
@@ -21373,15 +20957,14 @@
       <c r="AC265" s="4"/>
       <c r="AD265" s="4"/>
       <c r="AE265" s="4"/>
-      <c r="AF265" s="4"/>
-    </row>
-    <row r="266" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A266" s="18" t="s">
-        <v>39</v>
+    </row>
+    <row r="266" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A266" s="17" t="s">
+        <v>15</v>
       </c>
       <c r="B266" s="4"/>
       <c r="C266" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D266" s="4">
         <v>36</v>
@@ -21406,31 +20989,29 @@
         <v>77.884615384615387</v>
       </c>
       <c r="J266" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="K266" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="L266" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="M266" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="N266" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="O266" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="P266" s="4"/>
       <c r="Q266" s="4"/>
       <c r="R266" s="4"/>
       <c r="S266" s="4"/>
       <c r="T266" s="4"/>
-      <c r="U266" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="U266" s="4"/>
       <c r="V266" s="4"/>
       <c r="W266" s="4"/>
       <c r="X266" s="4"/>
@@ -21441,15 +21022,14 @@
       <c r="AC266" s="4"/>
       <c r="AD266" s="4"/>
       <c r="AE266" s="4"/>
-      <c r="AF266" s="4"/>
-    </row>
-    <row r="267" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A267" s="18" t="s">
-        <v>39</v>
+    </row>
+    <row r="267" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A267" s="17" t="s">
+        <v>15</v>
       </c>
       <c r="B267" s="4"/>
       <c r="C267" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D267" s="4">
         <v>36</v>
@@ -21474,31 +21054,29 @@
         <v>69.230769230769226</v>
       </c>
       <c r="J267" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="K267" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="L267" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="M267" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="N267" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="O267" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="P267" s="4"/>
       <c r="Q267" s="4"/>
       <c r="R267" s="4"/>
       <c r="S267" s="4"/>
       <c r="T267" s="4"/>
-      <c r="U267" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="U267" s="4"/>
       <c r="V267" s="4"/>
       <c r="W267" s="4"/>
       <c r="X267" s="4"/>
@@ -21509,15 +21087,14 @@
       <c r="AC267" s="4"/>
       <c r="AD267" s="4"/>
       <c r="AE267" s="4"/>
-      <c r="AF267" s="4"/>
-    </row>
-    <row r="268" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A268" s="18" t="s">
-        <v>39</v>
+    </row>
+    <row r="268" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A268" s="17" t="s">
+        <v>15</v>
       </c>
       <c r="B268" s="4"/>
       <c r="C268" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D268" s="4">
         <v>39</v>
@@ -21542,31 +21119,29 @@
         <v>82.692307692307693</v>
       </c>
       <c r="J268" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="K268" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="L268" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="M268" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="N268" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="O268" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="P268" s="4"/>
       <c r="Q268" s="4"/>
       <c r="R268" s="4"/>
       <c r="S268" s="4"/>
       <c r="T268" s="4"/>
-      <c r="U268" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="U268" s="4"/>
       <c r="V268" s="4"/>
       <c r="W268" s="4"/>
       <c r="X268" s="4"/>
@@ -21577,15 +21152,14 @@
       <c r="AC268" s="4"/>
       <c r="AD268" s="4"/>
       <c r="AE268" s="4"/>
-      <c r="AF268" s="4"/>
-    </row>
-    <row r="269" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A269" s="18" t="s">
-        <v>39</v>
+    </row>
+    <row r="269" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A269" s="17" t="s">
+        <v>15</v>
       </c>
       <c r="B269" s="4"/>
       <c r="C269" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D269" s="4">
         <v>37</v>
@@ -21610,31 +21184,29 @@
         <v>68.269230769230774</v>
       </c>
       <c r="J269" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="K269" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="L269" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="M269" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="N269" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="O269" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="P269" s="4"/>
       <c r="Q269" s="4"/>
       <c r="R269" s="4"/>
       <c r="S269" s="4"/>
       <c r="T269" s="4"/>
-      <c r="U269" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="U269" s="4"/>
       <c r="V269" s="4"/>
       <c r="W269" s="4"/>
       <c r="X269" s="4"/>
@@ -21645,15 +21217,14 @@
       <c r="AC269" s="4"/>
       <c r="AD269" s="4"/>
       <c r="AE269" s="4"/>
-      <c r="AF269" s="4"/>
-    </row>
-    <row r="270" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A270" s="18" t="s">
-        <v>39</v>
+    </row>
+    <row r="270" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A270" s="17" t="s">
+        <v>15</v>
       </c>
       <c r="B270" s="4"/>
       <c r="C270" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D270" s="4">
         <v>39</v>
@@ -21678,31 +21249,29 @@
         <v>67.307692307692307</v>
       </c>
       <c r="J270" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="K270" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="L270" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="M270" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="N270" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="O270" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="P270" s="4"/>
       <c r="Q270" s="4"/>
       <c r="R270" s="4"/>
       <c r="S270" s="4"/>
       <c r="T270" s="4"/>
-      <c r="U270" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="U270" s="4"/>
       <c r="V270" s="4"/>
       <c r="W270" s="4"/>
       <c r="X270" s="4"/>
@@ -21713,15 +21282,14 @@
       <c r="AC270" s="4"/>
       <c r="AD270" s="4"/>
       <c r="AE270" s="4"/>
-      <c r="AF270" s="4"/>
-    </row>
-    <row r="271" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A271" s="18" t="s">
-        <v>39</v>
+    </row>
+    <row r="271" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A271" s="17" t="s">
+        <v>15</v>
       </c>
       <c r="B271" s="4"/>
       <c r="C271" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D271" s="4">
         <v>36</v>
@@ -21746,31 +21314,29 @@
         <v>64.423076923076934</v>
       </c>
       <c r="J271" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="K271" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="L271" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="M271" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="N271" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="O271" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="P271" s="4"/>
       <c r="Q271" s="4"/>
       <c r="R271" s="4"/>
       <c r="S271" s="4"/>
       <c r="T271" s="4"/>
-      <c r="U271" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="U271" s="4"/>
       <c r="V271" s="4"/>
       <c r="W271" s="4"/>
       <c r="X271" s="4"/>
@@ -21781,10 +21347,9 @@
       <c r="AC271" s="4"/>
       <c r="AD271" s="4"/>
       <c r="AE271" s="4"/>
-      <c r="AF271" s="4"/>
-    </row>
-    <row r="272" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A272" s="18"/>
+    </row>
+    <row r="272" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A272" s="17"/>
       <c r="B272" s="4"/>
       <c r="C272" s="4"/>
       <c r="D272" s="4">
@@ -21830,7 +21395,6 @@
       <c r="AC272" s="4"/>
       <c r="AD272" s="4"/>
       <c r="AE272" s="4"/>
-      <c r="AF272" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
